--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>265</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>24.52830188679245</v>
+      </c>
       <c r="L12" t="n">
         <v>9522</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>295</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>13.79310344827586</v>
+      </c>
       <c r="L13" t="n">
         <v>9525.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>295</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-6.382978723404255</v>
+      </c>
       <c r="L14" t="n">
         <v>9529.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>315</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-2.040816326530612</v>
+      </c>
       <c r="L15" t="n">
         <v>9530</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>325</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.96078431372549</v>
+      </c>
       <c r="L16" t="n">
         <v>9530.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>325</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>62.5</v>
+      </c>
       <c r="L17" t="n">
         <v>9531</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>325</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>9541</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>325</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L19" t="n">
         <v>9542.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>325</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>9543</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>325</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>9543</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>340</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>9541.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>365</v>
       </c>
       <c r="K23" t="n">
-        <v>6.849315068493151</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>9540.5</v>
@@ -1466,7 +1488,7 @@
         <v>415</v>
       </c>
       <c r="K24" t="n">
-        <v>19.51219512195122</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>9544.5</v>
@@ -1515,7 +1537,7 @@
         <v>465</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.172839506172839</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>9541.5</v>
@@ -1564,7 +1586,7 @@
         <v>475</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>9536.5</v>
@@ -1613,7 +1635,7 @@
         <v>525</v>
       </c>
       <c r="K27" t="n">
-        <v>1.098901098901099</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>9536.5</v>
@@ -1662,7 +1684,7 @@
         <v>525</v>
       </c>
       <c r="K28" t="n">
-        <v>27.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>9536.5</v>
@@ -1711,7 +1733,7 @@
         <v>570</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.375</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L29" t="n">
         <v>9532</v>
@@ -1760,7 +1782,7 @@
         <v>615</v>
       </c>
       <c r="K30" t="n">
-        <v>1.408450704225352</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>9532</v>
@@ -1809,7 +1831,7 @@
         <v>665</v>
       </c>
       <c r="K31" t="n">
-        <v>-12.5</v>
+        <v>-10.76923076923077</v>
       </c>
       <c r="L31" t="n">
         <v>9527</v>
@@ -1860,7 +1882,7 @@
         <v>665</v>
       </c>
       <c r="K32" t="n">
-        <v>-12.5</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>9523.5</v>
@@ -1911,7 +1933,7 @@
         <v>715</v>
       </c>
       <c r="K33" t="n">
-        <v>7.142857142857142</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>9527.5</v>
@@ -1962,7 +1984,7 @@
         <v>730</v>
       </c>
       <c r="K34" t="n">
-        <v>3.448275862068965</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L34" t="n">
         <v>9525</v>
@@ -2013,7 +2035,7 @@
         <v>755</v>
       </c>
       <c r="K35" t="n">
-        <v>4.545454545454546</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L35" t="n">
         <v>9530</v>
@@ -2064,7 +2086,7 @@
         <v>890</v>
       </c>
       <c r="K36" t="n">
-        <v>-22.12389380530973</v>
+        <v>-34.24657534246575</v>
       </c>
       <c r="L36" t="n">
         <v>9522.5</v>
@@ -2115,7 +2137,7 @@
         <v>925</v>
       </c>
       <c r="K37" t="n">
-        <v>-15</v>
+        <v>-22.5</v>
       </c>
       <c r="L37" t="n">
         <v>9513.5</v>
@@ -2166,7 +2188,7 @@
         <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.222222222222222</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L38" t="n">
         <v>9512</v>
@@ -2217,7 +2239,7 @@
         <v>1015</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.347826086956522</v>
+        <v>-7.5</v>
       </c>
       <c r="L39" t="n">
         <v>9513.5</v>
@@ -2268,7 +2290,7 @@
         <v>1030</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.127659574468085</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="L40" t="n">
         <v>9512</v>
@@ -2319,7 +2341,7 @@
         <v>1150</v>
       </c>
       <c r="K41" t="n">
-        <v>-16.36363636363636</v>
+        <v>-17.52577319587629</v>
       </c>
       <c r="L41" t="n">
         <v>9503.5</v>
@@ -2370,7 +2392,7 @@
         <v>1265</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.5405405405405406</v>
+        <v>-3.636363636363636</v>
       </c>
       <c r="L42" t="n">
         <v>9506.5</v>
@@ -2421,7 +2443,7 @@
         <v>1285</v>
       </c>
       <c r="K43" t="n">
-        <v>4.347826086956522</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L43" t="n">
         <v>9506.5</v>
@@ -2472,7 +2494,7 @@
         <v>1345</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.526881720430108</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L44" t="n">
         <v>9502</v>
@@ -2523,7 +2545,7 @@
         <v>1395</v>
       </c>
       <c r="K45" t="n">
-        <v>3.225806451612903</v>
+        <v>22.77227722772277</v>
       </c>
       <c r="L45" t="n">
         <v>9500</v>
@@ -2574,7 +2596,7 @@
         <v>1435</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="L46" t="n">
         <v>9507.5</v>
@@ -2625,7 +2647,7 @@
         <v>1475</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.052631578947368</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="L47" t="n">
         <v>9515.5</v>
@@ -2676,7 +2698,7 @@
         <v>1485</v>
       </c>
       <c r="K48" t="n">
-        <v>-2.083333333333333</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L48" t="n">
         <v>9515</v>
@@ -2727,7 +2749,7 @@
         <v>1490</v>
       </c>
       <c r="K49" t="n">
-        <v>3.260869565217391</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>9516.5</v>
@@ -2778,7 +2800,7 @@
         <v>1555</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.51063829787234</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="L50" t="n">
         <v>9510</v>
@@ -2829,7 +2851,7 @@
         <v>1590</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.027027027027027</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="L51" t="n">
         <v>9512</v>
@@ -2880,7 +2902,7 @@
         <v>1695</v>
       </c>
       <c r="K52" t="n">
-        <v>3.883495145631068</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L52" t="n">
         <v>9513</v>
@@ -2931,7 +2953,7 @@
         <v>1800</v>
       </c>
       <c r="K53" t="n">
-        <v>-10.59907834101383</v>
+        <v>-12.08791208791209</v>
       </c>
       <c r="L53" t="n">
         <v>9501.5</v>
@@ -2982,7 +3004,7 @@
         <v>1810</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.18518518518519</v>
+        <v>-27.71084337349398</v>
       </c>
       <c r="L54" t="n">
         <v>9495</v>
@@ -3033,7 +3055,7 @@
         <v>1815</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.20754716981132</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L55" t="n">
         <v>9483</v>
@@ -3084,7 +3106,7 @@
         <v>1815</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.5405405405405406</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L56" t="n">
         <v>9475</v>
@@ -3135,7 +3157,7 @@
         <v>1875</v>
       </c>
       <c r="K57" t="n">
-        <v>2.105263157894737</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L57" t="n">
         <v>9469</v>
@@ -3186,7 +3208,7 @@
         <v>1940</v>
       </c>
       <c r="K58" t="n">
-        <v>-12.76595744680851</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L58" t="n">
         <v>9457.5</v>
@@ -3237,7 +3259,7 @@
         <v>1955</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.574468085106384</v>
+        <v>-10</v>
       </c>
       <c r="L59" t="n">
         <v>9447</v>
@@ -3288,7 +3310,7 @@
         <v>1960</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.82795698924731</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L60" t="n">
         <v>9442.5</v>
@@ -3339,7 +3361,7 @@
         <v>1970</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L61" t="n">
         <v>9440.5</v>
@@ -3390,7 +3412,7 @@
         <v>2020</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.609271523178808</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L62" t="n">
         <v>9433</v>
@@ -3441,7 +3463,7 @@
         <v>2085</v>
       </c>
       <c r="K63" t="n">
-        <v>-18.75</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L63" t="n">
         <v>9429.5</v>
@@ -3492,7 +3514,7 @@
         <v>2165</v>
       </c>
       <c r="K64" t="n">
-        <v>-1.219512195121951</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="L64" t="n">
         <v>9435</v>
@@ -3543,7 +3565,7 @@
         <v>2185</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.063291139240507</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="L65" t="n">
         <v>9443</v>
@@ -3594,7 +3616,7 @@
         <v>2195</v>
       </c>
       <c r="K66" t="n">
-        <v>1.31578947368421</v>
+        <v>9.375</v>
       </c>
       <c r="L66" t="n">
         <v>9452</v>
@@ -3645,7 +3667,7 @@
         <v>2195</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.166666666666666</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L67" t="n">
         <v>9455</v>
@@ -3696,7 +3718,7 @@
         <v>2210</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.6896551724137931</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L68" t="n">
         <v>9466</v>
@@ -3747,7 +3769,7 @@
         <v>2210</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.388888888888889</v>
+        <v>40</v>
       </c>
       <c r="L69" t="n">
         <v>9475.5</v>
@@ -3798,7 +3820,7 @@
         <v>2235</v>
       </c>
       <c r="K70" t="n">
-        <v>4.411764705882353</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L70" t="n">
         <v>9483</v>
@@ -3849,7 +3871,7 @@
         <v>2235</v>
       </c>
       <c r="K71" t="n">
-        <v>10.07751937984496</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L71" t="n">
         <v>9491.5</v>
@@ -3900,7 +3922,7 @@
         <v>2245</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090909092</v>
+        <v>56.25</v>
       </c>
       <c r="L72" t="n">
         <v>9494</v>
@@ -3951,7 +3973,7 @@
         <v>2245</v>
       </c>
       <c r="K73" t="n">
-        <v>12.35955056179775</v>
+        <v>12.5</v>
       </c>
       <c r="L73" t="n">
         <v>9503</v>
@@ -4002,7 +4024,7 @@
         <v>2255</v>
       </c>
       <c r="K74" t="n">
-        <v>16.85393258426966</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>9505</v>
@@ -4053,7 +4075,7 @@
         <v>2255</v>
       </c>
       <c r="K75" t="n">
-        <v>18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>9505</v>
@@ -4104,7 +4126,7 @@
         <v>2255</v>
       </c>
       <c r="K76" t="n">
-        <v>18.18181818181818</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>9504</v>
@@ -4155,7 +4177,7 @@
         <v>2275</v>
       </c>
       <c r="K77" t="n">
-        <v>10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L77" t="n">
         <v>9505</v>
@@ -4206,7 +4228,7 @@
         <v>2275</v>
       </c>
       <c r="K78" t="n">
-        <v>31.34328358208955</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L78" t="n">
         <v>9504.5</v>
@@ -4257,7 +4279,7 @@
         <v>2300</v>
       </c>
       <c r="K79" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L79" t="n">
         <v>9506.5</v>
@@ -4308,7 +4330,7 @@
         <v>2300</v>
       </c>
       <c r="K80" t="n">
-        <v>35.29411764705883</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L80" t="n">
         <v>9511</v>
@@ -4359,7 +4381,7 @@
         <v>2300</v>
       </c>
       <c r="K81" t="n">
-        <v>39.39393939393939</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>9515.5</v>
@@ -4410,7 +4432,7 @@
         <v>2300</v>
       </c>
       <c r="K82" t="n">
-        <v>28.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>9521</v>
@@ -4461,7 +4483,7 @@
         <v>2305</v>
       </c>
       <c r="K83" t="n">
-        <v>63.63636363636363</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
         <v>9526</v>
@@ -4512,7 +4534,7 @@
         <v>2305</v>
       </c>
       <c r="K84" t="n">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="L84" t="n">
         <v>9530</v>
@@ -4563,7 +4585,7 @@
         <v>2305</v>
       </c>
       <c r="K85" t="n">
-        <v>33.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="L85" t="n">
         <v>9534</v>
@@ -4614,7 +4636,7 @@
         <v>2310</v>
       </c>
       <c r="K86" t="n">
-        <v>30.43478260869566</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>9538.5</v>
@@ -4665,7 +4687,7 @@
         <v>2310</v>
       </c>
       <c r="K87" t="n">
-        <v>30.43478260869566</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L87" t="n">
         <v>9541</v>
@@ -4716,7 +4738,7 @@
         <v>2315</v>
       </c>
       <c r="K88" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>9544</v>
@@ -4767,7 +4789,7 @@
         <v>2315</v>
       </c>
       <c r="K89" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>9544.5</v>
@@ -4818,7 +4840,7 @@
         <v>2315</v>
       </c>
       <c r="K90" t="n">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>9545</v>
@@ -4869,7 +4891,7 @@
         <v>2315</v>
       </c>
       <c r="K91" t="n">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>9545.5</v>
@@ -4920,7 +4942,7 @@
         <v>2315</v>
       </c>
       <c r="K92" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>9546</v>
@@ -4971,7 +4993,7 @@
         <v>2315</v>
       </c>
       <c r="K93" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>9547</v>
@@ -5022,7 +5044,7 @@
         <v>2315</v>
       </c>
       <c r="K94" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>9548</v>
@@ -5073,7 +5095,7 @@
         <v>2315</v>
       </c>
       <c r="K95" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>9549</v>
@@ -5124,7 +5146,7 @@
         <v>2315</v>
       </c>
       <c r="K96" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>9549.5</v>
@@ -5174,9 +5196,7 @@
       <c r="J97" t="n">
         <v>2315</v>
       </c>
-      <c r="K97" t="n">
-        <v>75</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>9550</v>
       </c>
@@ -5225,9 +5245,7 @@
       <c r="J98" t="n">
         <v>2315</v>
       </c>
-      <c r="K98" t="n">
-        <v>75</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>9550</v>
       </c>
@@ -5276,9 +5294,7 @@
       <c r="J99" t="n">
         <v>2315</v>
       </c>
-      <c r="K99" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>9550</v>
       </c>
@@ -5327,9 +5343,7 @@
       <c r="J100" t="n">
         <v>2315</v>
       </c>
-      <c r="K100" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>9550</v>
       </c>
@@ -5379,7 +5393,7 @@
         <v>2350</v>
       </c>
       <c r="K101" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>9553.5</v>
@@ -5430,7 +5444,7 @@
         <v>2355</v>
       </c>
       <c r="K102" t="n">
-        <v>63.63636363636363</v>
+        <v>75</v>
       </c>
       <c r="L102" t="n">
         <v>9556.5</v>
@@ -5481,7 +5495,7 @@
         <v>2365</v>
       </c>
       <c r="K103" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
       <c r="L103" t="n">
         <v>9560.5</v>
@@ -5532,7 +5546,7 @@
         <v>2365</v>
       </c>
       <c r="K104" t="n">
-        <v>83.33333333333334</v>
+        <v>80</v>
       </c>
       <c r="L104" t="n">
         <v>9564.5</v>
@@ -5583,7 +5597,7 @@
         <v>2395</v>
       </c>
       <c r="K105" t="n">
-        <v>22.22222222222222</v>
+        <v>12.5</v>
       </c>
       <c r="L105" t="n">
         <v>9565.5</v>
@@ -5634,7 +5648,7 @@
         <v>2395</v>
       </c>
       <c r="K106" t="n">
-        <v>17.64705882352941</v>
+        <v>12.5</v>
       </c>
       <c r="L106" t="n">
         <v>9566.5</v>
@@ -5685,7 +5699,7 @@
         <v>2425</v>
       </c>
       <c r="K107" t="n">
-        <v>39.1304347826087</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L107" t="n">
         <v>9570.5</v>
@@ -5838,7 +5852,7 @@
         <v>2480</v>
       </c>
       <c r="K110" t="n">
-        <v>3.03030303030303</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L110" t="n">
         <v>9580</v>
@@ -5889,7 +5903,7 @@
         <v>2520</v>
       </c>
       <c r="K111" t="n">
-        <v>21.95121951219512</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L111" t="n">
         <v>9581</v>
@@ -5940,7 +5954,7 @@
         <v>2520</v>
       </c>
       <c r="K112" t="n">
-        <v>21.95121951219512</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L112" t="n">
         <v>9582.5</v>
@@ -5991,7 +6005,7 @@
         <v>2520</v>
       </c>
       <c r="K113" t="n">
-        <v>21.95121951219512</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L113" t="n">
         <v>9583</v>
@@ -6042,7 +6056,7 @@
         <v>2525</v>
       </c>
       <c r="K114" t="n">
-        <v>23.80952380952381</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L114" t="n">
         <v>9584</v>
@@ -6093,7 +6107,7 @@
         <v>2525</v>
       </c>
       <c r="K115" t="n">
-        <v>23.80952380952381</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L115" t="n">
         <v>9588</v>
@@ -6144,7 +6158,7 @@
         <v>2570</v>
       </c>
       <c r="K116" t="n">
-        <v>1.96078431372549</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L116" t="n">
         <v>9587.5</v>
@@ -6195,7 +6209,7 @@
         <v>2650</v>
       </c>
       <c r="K117" t="n">
-        <v>25.37313432835821</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>9592</v>
@@ -6246,7 +6260,7 @@
         <v>2655</v>
       </c>
       <c r="K118" t="n">
-        <v>26.47058823529412</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L118" t="n">
         <v>9597</v>
@@ -6297,7 +6311,7 @@
         <v>2655</v>
       </c>
       <c r="K119" t="n">
-        <v>26.47058823529412</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L119" t="n">
         <v>9601</v>
@@ -6348,7 +6362,7 @@
         <v>2655</v>
       </c>
       <c r="K120" t="n">
-        <v>26.47058823529412</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>9609.5</v>
@@ -6399,7 +6413,7 @@
         <v>2665</v>
       </c>
       <c r="K121" t="n">
-        <v>20.63492063492063</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L121" t="n">
         <v>9615</v>
@@ -6450,7 +6464,7 @@
         <v>2685</v>
       </c>
       <c r="K122" t="n">
-        <v>27.27272727272727</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L122" t="n">
         <v>9622.5</v>
@@ -6501,7 +6515,7 @@
         <v>2730</v>
       </c>
       <c r="K123" t="n">
-        <v>9.58904109589041</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L123" t="n">
         <v>9625.5</v>
@@ -6552,7 +6566,7 @@
         <v>2780</v>
       </c>
       <c r="K124" t="n">
-        <v>20.48192771084337</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L124" t="n">
         <v>9633</v>
@@ -6603,7 +6617,7 @@
         <v>2790</v>
       </c>
       <c r="K125" t="n">
-        <v>26.58227848101265</v>
+        <v>50</v>
       </c>
       <c r="L125" t="n">
         <v>9639.5</v>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S125"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,15 @@
         <v>9491.083333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
-      </c>
-      <c r="J6" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>165</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" t="n">
-        <v>250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
-      </c>
-      <c r="J10" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>9515.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>265</v>
-      </c>
-      <c r="K12" t="n">
-        <v>24.52830188679245</v>
-      </c>
-      <c r="L12" t="n">
-        <v>9522</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>295</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13.79310344827586</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9525.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>295</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-6.382978723404255</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9529.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>315</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-2.040816326530612</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9530</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>325</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9530.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>325</v>
-      </c>
-      <c r="K17" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9531</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>325</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9541</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>65</v>
-      </c>
-      <c r="J19" t="n">
-        <v>325</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9542.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>325</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9543</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65</v>
-      </c>
-      <c r="J21" t="n">
-        <v>325</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>9529.25</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="n">
-        <v>340</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9541.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>9531.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>365</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9540.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>9533</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>415</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9544.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>9537</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>465</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9541.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>9535.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>475</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9536.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>9533.5</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65</v>
-      </c>
-      <c r="J27" t="n">
-        <v>525</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9536.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>9533.75</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65</v>
-      </c>
-      <c r="J28" t="n">
-        <v>525</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9536.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>9538.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
-      </c>
-      <c r="J29" t="n">
-        <v>570</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-18.36734693877551</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>9537.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65</v>
-      </c>
-      <c r="J30" t="n">
-        <v>615</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>9537.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>665</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-10.76923076923077</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>9535</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9528.5</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
-      </c>
-      <c r="J32" t="n">
-        <v>665</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-3.333333333333333</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9523.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>9532.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9529</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>715</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-3.333333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9527.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>9534</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9531.166666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>50</v>
-      </c>
-      <c r="J34" t="n">
-        <v>730</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9.433962264150944</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>9534.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9533</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>755</v>
-      </c>
-      <c r="K35" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>9535.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>9533.833333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J36" t="n">
-        <v>890</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-34.24657534246575</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9522.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>9529.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9529.833333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>925</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-22.5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>9513.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>9525</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9527</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>9524.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9529.833333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1015</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>9513.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>9522.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9529.333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1030</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>9522</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9529</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1150</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-17.52577319587629</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9503.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>9515.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9524.5</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1265</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-3.636363636363636</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9506.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>9515</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9523.833333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1285</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9506.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>9517</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9524.833333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1345</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-11.86440677966102</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>9513.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9523.833333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>55</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1395</v>
-      </c>
-      <c r="K45" t="n">
-        <v>22.77227722772277</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>9515</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9523.833333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1435</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9507.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>9515</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9522.166666666666</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>55</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1475</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9515.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>9514.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9521.833333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>45</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1485</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.127659574468085</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>9513.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9521.166666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>50</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1490</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9516.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>9515</v>
-      </c>
-      <c r="N49" t="n">
-        <v>9520.666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1555</v>
-      </c>
-      <c r="K50" t="n">
-        <v>13.58024691358025</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>9511</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9518</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1590</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-29.23076923076923</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9512</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>9507.75</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9514.166666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1695</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>9509.75</v>
-      </c>
-      <c r="N52" t="n">
-        <v>9514.333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1800</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-12.08791208791209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9501.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>9504</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9511.833333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1810</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-27.71084337349398</v>
-      </c>
-      <c r="L54" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>9498.5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9507.333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1815</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-21.05263157894737</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>9491.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9504.333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-65</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1815</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-35.29411764705883</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>9491.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9501.666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1875</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>9492.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9499.333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2411,19 @@
         <v>9511.333333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1940</v>
+        <v>9415</v>
       </c>
       <c r="K58" t="n">
-        <v>-26.66666666666667</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9457.5</v>
-      </c>
+        <v>9415</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>9486.25</v>
-      </c>
-      <c r="N58" t="n">
-        <v>9494.833333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2453,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-55</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9447</v>
+        <v>9415</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>9481.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9492.333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2491,23 @@
         <v>9509.083333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1960</v>
+        <v>9425</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9442.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>9476.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>9488.166666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2534,23 @@
         <v>9506.916666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1970</v>
+        <v>9455</v>
       </c>
       <c r="K61" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9440.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>9476.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>9485.333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2577,23 @@
         <v>9506.583333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2020</v>
+        <v>9410</v>
       </c>
       <c r="K62" t="n">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9433</v>
+        <v>9415</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>9473</v>
-      </c>
-      <c r="N62" t="n">
-        <v>9484.166666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2620,23 @@
         <v>9505.166666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-85</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2085</v>
+        <v>9400</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9429.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>9465.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9479.166666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2663,23 @@
         <v>9505.166666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2165</v>
+        <v>9400</v>
       </c>
       <c r="K64" t="n">
-        <v>17.14285714285714</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9435</v>
+        <v>9415</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>9465</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9477.333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2706,23 @@
         <v>9504.583333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2185</v>
+        <v>9480</v>
       </c>
       <c r="K65" t="n">
-        <v>21.62162162162162</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9443</v>
+        <v>9415</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>9463</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9475.333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2749,23 @@
         <v>9504</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2195</v>
+        <v>9510</v>
       </c>
       <c r="K66" t="n">
-        <v>9.375</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9452</v>
+        <v>9415</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>9463.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9478.166666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2795,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>37.25490196078432</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9455</v>
+        <v>9415</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>9462</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9479.833333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2836,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>37.25490196078432</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9466</v>
+        <v>9415</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>9461.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9479.5</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2877,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>40</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>40</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9475.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>9461.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9479.666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2918,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>32.0754716981132</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9483</v>
+        <v>9415</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>9462.75</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9478.5</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2959,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9491.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>9466</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9481.333333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3000,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9494</v>
+        <v>9415</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>9463.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>9480</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3041,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9503</v>
+        <v>9415</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>9466.25</v>
-      </c>
-      <c r="N73" t="n">
-        <v>9478</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3082,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9505</v>
+        <v>9415</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>9470</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9478.333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3123,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9505</v>
+        <v>9415</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>9474</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9477</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3164,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9504</v>
+        <v>9415</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>9478</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9477</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3205,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>35</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9505</v>
+        <v>9415</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>9480</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9476.333333333334</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3246,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9504.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>9485.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9476</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3287,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>60</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9506.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>9491</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9476.333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3328,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9511</v>
+        <v>9415</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>9497</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9478.833333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3369,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>60</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>100</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9515.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>9503.5</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9482.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3410,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>60</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>100</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9521</v>
+        <v>9415</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>9507.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9482.666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3451,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>55</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>80</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9526</v>
+        <v>9415</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>9514.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9486.166666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3492,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>55</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>80</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9530</v>
+        <v>9415</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>9517.5</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9490</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3533,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>80</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9534</v>
+        <v>9415</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>9519.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9494</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3574,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9538.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>9521.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9498.166666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3615,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>60</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9541</v>
+        <v>9415</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>9523</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9500.333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3656,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>65</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9544</v>
+        <v>9415</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>9524.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9504.833333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3697,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>65</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9544.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>9525.5</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9508.833333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3738,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>65</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9545</v>
+        <v>9415</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>9528</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9513</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3779,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>65</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9545.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>9530.5</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9517.5</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3820,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>65</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9546</v>
+        <v>9415</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>9533.5</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9520.333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3861,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>65</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9547</v>
+        <v>9415</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>9536.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9525.333333333334</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3902,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>65</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9548</v>
+        <v>9415</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>9539</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9527.666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3943,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9549</v>
+        <v>9415</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>9541.5</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9529.333333333334</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3984,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>65</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9549.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>9544</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9530.666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,26 +4025,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>65</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2315</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>9545.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9532</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,26 +4066,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2315</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>9547</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9532.833333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,26 +4107,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>65</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2315</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>9547.25</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9533.666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,26 +4148,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2315</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>9550</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>9547.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9535.333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,28 +4189,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>100</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9553.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>9549.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9538.166666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,28 +4230,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>95</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>75</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9556.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>9551.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9541.166666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,28 +4271,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>105</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>80</v>
-      </c>
-      <c r="L103" t="n">
-        <v>9560.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>9553.75</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9544.5</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,1099 +4312,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>105</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>80</v>
-      </c>
-      <c r="L104" t="n">
-        <v>9564.5</v>
+        <v>9415</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>9556.25</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9547.5</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5</v>
-      </c>
-      <c r="G105" t="n">
-        <v>9513.25</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>75</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2395</v>
-      </c>
-      <c r="K105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9565.5</v>
-      </c>
-      <c r="M105" t="n">
-        <v>9557.25</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9549.5</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F106" t="n">
-        <v>11.7954</v>
-      </c>
-      <c r="G106" t="n">
-        <v>9514.25</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>75</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2395</v>
-      </c>
-      <c r="K106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9566.5</v>
-      </c>
-      <c r="M106" t="n">
-        <v>9558</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9551.5</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9585</v>
-      </c>
-      <c r="F107" t="n">
-        <v>95</v>
-      </c>
-      <c r="G107" t="n">
-        <v>9515.083333333334</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>105</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2425</v>
-      </c>
-      <c r="K107" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9570.5</v>
-      </c>
-      <c r="M107" t="n">
-        <v>9560.25</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9553.833333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F108" t="n">
-        <v>32</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9516.083333333334</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>105</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2425</v>
-      </c>
-      <c r="K108" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9574.5</v>
-      </c>
-      <c r="M108" t="n">
-        <v>9562.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9556.166666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F109" t="n">
-        <v>34</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9517.166666666666</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>115</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2435</v>
-      </c>
-      <c r="K109" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9579.5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>9564.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9558</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F110" t="n">
-        <v>34.6288</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9518.583333333334</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>70</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9580</v>
-      </c>
-      <c r="M110" t="n">
-        <v>9565</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9558.333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F111" t="n">
-        <v>6</v>
-      </c>
-      <c r="G111" t="n">
-        <v>9521.25</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>110</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K111" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9581</v>
-      </c>
-      <c r="M111" t="n">
-        <v>9567.25</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9560</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F112" t="n">
-        <v>4</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9522.166666666666</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>110</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9582.5</v>
-      </c>
-      <c r="M112" t="n">
-        <v>9569.5</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9561.666666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>9524.833333333334</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>110</v>
-      </c>
-      <c r="J113" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K113" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9583</v>
-      </c>
-      <c r="M113" t="n">
-        <v>9571.75</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9563.5</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>9527.75</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>115</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2525</v>
-      </c>
-      <c r="K114" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9584</v>
-      </c>
-      <c r="M114" t="n">
-        <v>9574.25</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9565.5</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F115" t="n">
-        <v>190.3934</v>
-      </c>
-      <c r="G115" t="n">
-        <v>9530.75</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>115</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2525</v>
-      </c>
-      <c r="K115" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9588</v>
-      </c>
-      <c r="M115" t="n">
-        <v>9576.75</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9567.5</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F116" t="n">
-        <v>190.3934</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9533</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>70</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2570</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9587.5</v>
-      </c>
-      <c r="M116" t="n">
-        <v>9577</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9567.833333333334</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9535.583333333334</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>150</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K117" t="n">
-        <v>20</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9592</v>
-      </c>
-      <c r="M117" t="n">
-        <v>9581.25</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9570.833333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9539.333333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>155</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K118" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9597</v>
-      </c>
-      <c r="M118" t="n">
-        <v>9585.75</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9573.833333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9542.833333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>155</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K119" t="n">
-        <v>48.57142857142857</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9601</v>
-      </c>
-      <c r="M119" t="n">
-        <v>9590.25</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9576.833333333334</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F120" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9546.416666666666</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>155</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2655</v>
-      </c>
-      <c r="K120" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9609.5</v>
-      </c>
-      <c r="M120" t="n">
-        <v>9594.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9579.833333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.99899896</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9550.333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>165</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2665</v>
-      </c>
-      <c r="K121" t="n">
-        <v>37.93103448275862</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9615</v>
-      </c>
-      <c r="M121" t="n">
-        <v>9598</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9583.166666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F122" t="n">
-        <v>103.50315532</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9553.75</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>185</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2685</v>
-      </c>
-      <c r="K122" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9622.5</v>
-      </c>
-      <c r="M122" t="n">
-        <v>9602.5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9587.166666666666</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4.5253</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9557.5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>140</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2730</v>
-      </c>
-      <c r="K123" t="n">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9625.5</v>
-      </c>
-      <c r="M123" t="n">
-        <v>9604.25</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9589.666666666666</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9660</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9660</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4.99926403</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9560.75</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>190</v>
-      </c>
-      <c r="J124" t="n">
-        <v>2780</v>
-      </c>
-      <c r="K124" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9633</v>
-      </c>
-      <c r="M124" t="n">
-        <v>9608.5</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9593.833333333334</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="F125" t="n">
-        <v>62.2009</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9563.5</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>180</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2790</v>
-      </c>
-      <c r="K125" t="n">
-        <v>50</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9639.5</v>
-      </c>
-      <c r="M125" t="n">
-        <v>9613.75</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9597.666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -2411,17 +2411,13 @@
         <v>9511.333333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>9415</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2456,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9415</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2491,22 +2481,14 @@
         <v>9509.083333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9415</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2534,22 +2516,14 @@
         <v>9506.916666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>9455</v>
-      </c>
-      <c r="K61" t="n">
-        <v>9415</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2583,14 +2557,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>9410</v>
-      </c>
-      <c r="K62" t="n">
         <v>9415</v>
       </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2626,11 +2598,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9415</v>
-      </c>
+        <v>9465</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,9 +2641,7 @@
       <c r="J64" t="n">
         <v>9400</v>
       </c>
-      <c r="K64" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,17 +2674,13 @@
         <v>9504.583333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>9480</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2749,17 +2713,13 @@
         <v>9504</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,9 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,9 +2797,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,9 +2836,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,9 +2875,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,9 +2914,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,9 +2953,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,9 +2992,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,9 +3031,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,9 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,9 +3109,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,9 +3148,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,9 +3187,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,9 +3226,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,9 +3265,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,9 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,9 +3343,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,9 +3382,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,9 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,9 +3460,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,9 +3499,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,9 +3538,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,9 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,9 +3616,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,9 +3655,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,9 +3694,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3733,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,9 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,9 +3811,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,9 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,9 +3889,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,9 +3928,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +3967,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,9 +4006,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,9 +4045,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,9 +4123,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,9 +4162,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,20 +4198,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9415</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="C2" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="D2" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="E2" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4575</v>
+        <v>64.6554</v>
       </c>
       <c r="G2" t="n">
-        <v>9491.083333333334</v>
+        <v>9489.583333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>9485</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.4575</v>
       </c>
       <c r="G3" t="n">
-        <v>9492.5</v>
+        <v>9491.083333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9545</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,32 +507,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="C4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="D4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="E4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="F4" t="n">
-        <v>17.6289</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>9493.25</v>
+        <v>9492.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9545</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9525</v>
+        <v>9480</v>
       </c>
       <c r="C5" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="D5" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="E5" t="n">
-        <v>9525</v>
+        <v>9480</v>
       </c>
       <c r="F5" t="n">
-        <v>68.5</v>
+        <v>17.6289</v>
       </c>
       <c r="G5" t="n">
-        <v>9494.5</v>
+        <v>9493.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9545</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +593,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C6" t="n">
         <v>9535</v>
       </c>
-      <c r="C6" t="n">
-        <v>9545</v>
-      </c>
       <c r="D6" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E6" t="n">
-        <v>9535</v>
+        <v>9525</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>68.5</v>
       </c>
       <c r="G6" t="n">
-        <v>9496.583333333334</v>
+        <v>9494.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C7" t="n">
         <v>9545</v>
@@ -617,13 +637,13 @@
         <v>9545</v>
       </c>
       <c r="E7" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="F7" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>9498.083333333334</v>
+        <v>9496.583333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,28 +663,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="C8" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="D8" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="E8" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="F8" t="n">
-        <v>369</v>
+        <v>30.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9497.916666666666</v>
+        <v>9498.083333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,28 +698,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="C9" t="n">
-        <v>9535</v>
+        <v>9450</v>
       </c>
       <c r="D9" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="E9" t="n">
-        <v>9535</v>
+        <v>9450</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="G9" t="n">
-        <v>9498.583333333334</v>
+        <v>9497.916666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -716,19 +736,19 @@
         <v>9535</v>
       </c>
       <c r="C10" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="D10" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E10" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="F10" t="n">
-        <v>37.5</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>9499.416666666666</v>
+        <v>9498.583333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +768,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C11" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D11" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E11" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="F11" t="n">
-        <v>71.5</v>
+        <v>37.5</v>
       </c>
       <c r="G11" t="n">
-        <v>9500.333333333334</v>
+        <v>9499.416666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="C12" t="n">
         <v>9550</v>
@@ -792,19 +812,19 @@
         <v>9550</v>
       </c>
       <c r="E12" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>71.5</v>
       </c>
       <c r="G12" t="n">
-        <v>9501.25</v>
+        <v>9500.333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -821,19 +841,19 @@
         <v>9540</v>
       </c>
       <c r="C13" t="n">
-        <v>9520</v>
+        <v>9550</v>
       </c>
       <c r="D13" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E13" t="n">
         <v>9540</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9520</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>9501.666666666666</v>
+        <v>9501.25</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,13 +873,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C14" t="n">
         <v>9520</v>
       </c>
       <c r="D14" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="E14" t="n">
         <v>9520</v>
@@ -868,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>9502.083333333334</v>
+        <v>9501.666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +908,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C15" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D15" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E15" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>9503.916666666666</v>
+        <v>9502.083333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +946,19 @@
         <v>9540</v>
       </c>
       <c r="C16" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="D16" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="E16" t="n">
         <v>9540</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>9506</v>
+        <v>9503.916666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C17" t="n">
         <v>9550</v>
@@ -967,13 +987,13 @@
         <v>9550</v>
       </c>
       <c r="E17" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="F17" t="n">
-        <v>8.880000000000001</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>9507.5</v>
+        <v>9506</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1025,10 @@
         <v>9550</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>9508.833333333334</v>
+        <v>9507.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1060,10 @@
         <v>9550</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>9510.083333333334</v>
+        <v>9508.833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="C20" t="n">
         <v>9550</v>
@@ -1072,13 +1092,13 @@
         <v>9550</v>
       </c>
       <c r="E20" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="F20" t="n">
-        <v>22.7494</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>9511.333333333334</v>
+        <v>9510.083333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C21" t="n">
         <v>9550</v>
@@ -1107,13 +1127,13 @@
         <v>9550</v>
       </c>
       <c r="E21" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>22.7494</v>
       </c>
       <c r="G21" t="n">
-        <v>9512.25</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1156,19 @@
         <v>9550</v>
       </c>
       <c r="C22" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D22" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="E22" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="F22" t="n">
-        <v>199.4047</v>
+        <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>9512.916666666666</v>
+        <v>9512.25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1188,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9510</v>
+        <v>9550</v>
       </c>
       <c r="C23" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="D23" t="n">
-        <v>9510</v>
+        <v>9580</v>
       </c>
       <c r="E23" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="F23" t="n">
-        <v>50.2011</v>
+        <v>199.4047</v>
       </c>
       <c r="G23" t="n">
-        <v>9513.166666666666</v>
+        <v>9512.916666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="C24" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="D24" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="E24" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="F24" t="n">
-        <v>31.5</v>
+        <v>50.2011</v>
       </c>
       <c r="G24" t="n">
-        <v>9514.666666666666</v>
+        <v>9513.166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1258,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="C25" t="n">
-        <v>9510</v>
+        <v>9560</v>
       </c>
       <c r="D25" t="n">
-        <v>9510</v>
+        <v>9560</v>
       </c>
       <c r="E25" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>31.5</v>
       </c>
       <c r="G25" t="n">
-        <v>9515.333333333334</v>
+        <v>9514.666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1296,19 @@
         <v>9510</v>
       </c>
       <c r="C26" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="D26" t="n">
         <v>9510</v>
       </c>
       <c r="E26" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="F26" t="n">
-        <v>245.9735</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>9515.833333333334</v>
+        <v>9515.333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1328,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9545</v>
+        <v>9510</v>
       </c>
       <c r="C27" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D27" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E27" t="n">
-        <v>9545</v>
+        <v>9500</v>
       </c>
       <c r="F27" t="n">
-        <v>6.29</v>
+        <v>245.9735</v>
       </c>
       <c r="G27" t="n">
-        <v>9516.916666666666</v>
+        <v>9515.833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C28" t="n">
         <v>9550</v>
@@ -1352,13 +1372,13 @@
         <v>9550</v>
       </c>
       <c r="E28" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F28" t="n">
-        <v>9.6342</v>
+        <v>6.29</v>
       </c>
       <c r="G28" t="n">
-        <v>9518.666666666666</v>
+        <v>9516.916666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1398,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="C29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="D29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="E29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="F29" t="n">
-        <v>23.4681</v>
+        <v>9.6342</v>
       </c>
       <c r="G29" t="n">
-        <v>9518.916666666666</v>
+        <v>9518.666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1436,19 @@
         <v>9505</v>
       </c>
       <c r="C30" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="D30" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="E30" t="n">
         <v>9505</v>
       </c>
       <c r="F30" t="n">
-        <v>75.1276</v>
+        <v>23.4681</v>
       </c>
       <c r="G30" t="n">
-        <v>9519.833333333334</v>
+        <v>9518.916666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1471,19 @@
         <v>9505</v>
       </c>
       <c r="C31" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="D31" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E31" t="n">
         <v>9505</v>
       </c>
-      <c r="E31" t="n">
-        <v>9500</v>
-      </c>
       <c r="F31" t="n">
-        <v>31.0912</v>
+        <v>75.1276</v>
       </c>
       <c r="G31" t="n">
-        <v>9519.916666666666</v>
+        <v>9519.833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1503,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="C32" t="n">
         <v>9500</v>
       </c>
       <c r="D32" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="E32" t="n">
         <v>9500</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9088000000000001</v>
+        <v>31.0912</v>
       </c>
       <c r="G32" t="n">
-        <v>9519.583333333334</v>
+        <v>9519.916666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1538,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="C33" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D33" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="E33" t="n">
-        <v>9480</v>
+        <v>9500</v>
       </c>
       <c r="F33" t="n">
-        <v>992.0471</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>9521.166666666666</v>
+        <v>9519.583333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1573,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="C34" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D34" t="n">
-        <v>9540</v>
+        <v>9565</v>
       </c>
       <c r="E34" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="F34" t="n">
-        <v>32.2283</v>
+        <v>992.0471</v>
       </c>
       <c r="G34" t="n">
-        <v>9521.416666666666</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1608,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9480</v>
+        <v>9540</v>
       </c>
       <c r="C35" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="D35" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="E35" t="n">
-        <v>9480</v>
+        <v>9535</v>
       </c>
       <c r="F35" t="n">
-        <v>871.4606</v>
+        <v>32.2283</v>
       </c>
       <c r="G35" t="n">
-        <v>9522.25</v>
+        <v>9521.416666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9475</v>
+        <v>9480</v>
       </c>
       <c r="C36" t="n">
-        <v>9425</v>
+        <v>9560</v>
       </c>
       <c r="D36" t="n">
-        <v>9475</v>
+        <v>9560</v>
       </c>
       <c r="E36" t="n">
-        <v>9425</v>
+        <v>9480</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6687</v>
+        <v>871.4606</v>
       </c>
       <c r="G36" t="n">
-        <v>9520.833333333334</v>
+        <v>9522.25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9460</v>
+        <v>9475</v>
       </c>
       <c r="C37" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="D37" t="n">
-        <v>9460</v>
+        <v>9475</v>
       </c>
       <c r="E37" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>114.6687</v>
       </c>
       <c r="G37" t="n">
-        <v>9520.583333333334</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1713,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="C38" t="n">
-        <v>9535</v>
+        <v>9460</v>
       </c>
       <c r="D38" t="n">
-        <v>9535</v>
+        <v>9460</v>
       </c>
       <c r="E38" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="F38" t="n">
-        <v>11.1779</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>9520.833333333334</v>
+        <v>9520.583333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1748,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C39" t="n">
         <v>9535</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9520</v>
       </c>
       <c r="D39" t="n">
         <v>9535</v>
       </c>
       <c r="E39" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0967</v>
+        <v>11.1779</v>
       </c>
       <c r="G39" t="n">
-        <v>9520.916666666666</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="C40" t="n">
-        <v>9535</v>
+        <v>9520</v>
       </c>
       <c r="D40" t="n">
         <v>9535</v>
       </c>
       <c r="E40" t="n">
-        <v>9530</v>
+        <v>9520</v>
       </c>
       <c r="F40" t="n">
-        <v>38</v>
+        <v>13.0967</v>
       </c>
       <c r="G40" t="n">
-        <v>9521.5</v>
+        <v>9520.916666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9425</v>
+        <v>9530</v>
       </c>
       <c r="C41" t="n">
-        <v>9415</v>
+        <v>9535</v>
       </c>
       <c r="D41" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="E41" t="n">
-        <v>9415</v>
+        <v>9530</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G41" t="n">
-        <v>9520.083333333334</v>
+        <v>9521.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9510</v>
+        <v>9425</v>
       </c>
       <c r="C42" t="n">
-        <v>9530</v>
+        <v>9415</v>
       </c>
       <c r="D42" t="n">
-        <v>9530</v>
+        <v>9425</v>
       </c>
       <c r="E42" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="F42" t="n">
-        <v>12.86</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>9520.666666666666</v>
+        <v>9520.083333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1888,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="D43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="E43" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="F43" t="n">
-        <v>536.3916</v>
+        <v>12.86</v>
       </c>
       <c r="G43" t="n">
-        <v>9521.166666666666</v>
+        <v>9520.666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1923,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9490</v>
+        <v>9525</v>
       </c>
       <c r="C44" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="D44" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>536.3916</v>
       </c>
       <c r="G44" t="n">
-        <v>9520.833333333334</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1961,19 @@
         <v>9490</v>
       </c>
       <c r="C45" t="n">
-        <v>9540</v>
+        <v>9490</v>
       </c>
       <c r="D45" t="n">
-        <v>9540</v>
+        <v>9490</v>
       </c>
       <c r="E45" t="n">
         <v>9490</v>
       </c>
       <c r="F45" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>9521.333333333334</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="C46" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="D46" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="E46" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="F46" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G46" t="n">
-        <v>9521.166666666666</v>
+        <v>9521.333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2031,19 @@
         <v>9450</v>
       </c>
       <c r="C47" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="D47" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="E47" t="n">
         <v>9450</v>
       </c>
       <c r="F47" t="n">
-        <v>72.59439999999999</v>
+        <v>56</v>
       </c>
       <c r="G47" t="n">
-        <v>9521.666666666666</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="C48" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="D48" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="E48" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="F48" t="n">
-        <v>55.6342</v>
+        <v>72.59439999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>9521.833333333334</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C49" t="n">
         <v>9530</v>
       </c>
-      <c r="C49" t="n">
-        <v>9535</v>
-      </c>
       <c r="D49" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="E49" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="F49" t="n">
-        <v>94.41459999999999</v>
+        <v>55.6342</v>
       </c>
       <c r="G49" t="n">
-        <v>9522</v>
+        <v>9521.833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="C50" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="D50" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="E50" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>94.41459999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>9521.75</v>
+        <v>9522</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="C51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="D51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="E51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="F51" t="n">
-        <v>682</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>9520.25</v>
+        <v>9521.75</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="C52" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="D52" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="E52" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="F52" t="n">
-        <v>187</v>
+        <v>682</v>
       </c>
       <c r="G52" t="n">
-        <v>9520.5</v>
+        <v>9520.25</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2238,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C53" t="n">
         <v>9540</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9435</v>
       </c>
       <c r="D53" t="n">
         <v>9540</v>
       </c>
       <c r="E53" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F53" t="n">
-        <v>15.8651</v>
+        <v>187</v>
       </c>
       <c r="G53" t="n">
-        <v>9518.916666666666</v>
+        <v>9520.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C54" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="D54" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="E54" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="F54" t="n">
-        <v>22.3678</v>
+        <v>15.8651</v>
       </c>
       <c r="G54" t="n">
-        <v>9517.166666666666</v>
+        <v>9518.916666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="C55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="D55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="E55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="F55" t="n">
-        <v>4.8893</v>
+        <v>22.3678</v>
       </c>
       <c r="G55" t="n">
-        <v>9515.083333333334</v>
+        <v>9517.166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2355,10 @@
         <v>9420</v>
       </c>
       <c r="F56" t="n">
-        <v>220.1467</v>
+        <v>4.8893</v>
       </c>
       <c r="G56" t="n">
-        <v>9513.833333333334</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="C57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="D57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="E57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="F57" t="n">
-        <v>4.8893</v>
+        <v>220.1467</v>
       </c>
       <c r="G57" t="n">
-        <v>9512.666666666666</v>
+        <v>9513.833333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="C58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="D58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="E58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>4.8893</v>
       </c>
       <c r="G58" t="n">
-        <v>9511.333333333334</v>
+        <v>9512.666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="C59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="D59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="E59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="F59" t="n">
-        <v>4.2019</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>9510.25</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2483,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="C60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="D60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="E60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="F60" t="n">
-        <v>16.7987</v>
+        <v>4.2019</v>
       </c>
       <c r="G60" t="n">
-        <v>9509.083333333334</v>
+        <v>9510.25</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="C61" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="D61" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="E61" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3231</v>
+        <v>16.7987</v>
       </c>
       <c r="G61" t="n">
-        <v>9506.916666666666</v>
+        <v>9509.083333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,38 +2553,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9410</v>
+        <v>9455</v>
       </c>
       <c r="C62" t="n">
-        <v>9465</v>
+        <v>9415</v>
       </c>
       <c r="D62" t="n">
-        <v>9465</v>
+        <v>9455</v>
       </c>
       <c r="E62" t="n">
-        <v>9400</v>
+        <v>9415</v>
       </c>
       <c r="F62" t="n">
-        <v>214.4752</v>
+        <v>0.3231</v>
       </c>
       <c r="G62" t="n">
-        <v>9506.583333333334</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>9415</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2574,38 +2588,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="C63" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="D63" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="E63" t="n">
         <v>9400</v>
       </c>
       <c r="F63" t="n">
-        <v>27.8</v>
+        <v>214.4752</v>
       </c>
       <c r="G63" t="n">
-        <v>9505.166666666666</v>
+        <v>9506.583333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>9465</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2618,35 +2626,29 @@
         <v>9400</v>
       </c>
       <c r="C64" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="D64" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="E64" t="n">
         <v>9400</v>
       </c>
       <c r="F64" t="n">
-        <v>611.9446</v>
+        <v>27.8</v>
       </c>
       <c r="G64" t="n">
         <v>9505.166666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2656,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C65" t="n">
         <v>9480</v>
       </c>
-      <c r="C65" t="n">
-        <v>9500</v>
-      </c>
       <c r="D65" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="E65" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3258</v>
+        <v>611.9446</v>
       </c>
       <c r="G65" t="n">
-        <v>9504.583333333334</v>
+        <v>9505.166666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2681,11 +2683,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2695,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="C66" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="D66" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="E66" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="F66" t="n">
-        <v>6.49</v>
+        <v>1.3258</v>
       </c>
       <c r="G66" t="n">
-        <v>9504</v>
+        <v>9504.583333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,11 +2718,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2746,10 +2740,10 @@
         <v>9510</v>
       </c>
       <c r="F67" t="n">
-        <v>6.22</v>
+        <v>6.49</v>
       </c>
       <c r="G67" t="n">
-        <v>9503.416666666666</v>
+        <v>9504</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2759,11 +2753,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2773,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="D68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="E68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="F68" t="n">
-        <v>6.39</v>
+        <v>6.22</v>
       </c>
       <c r="G68" t="n">
-        <v>9504.666666666666</v>
+        <v>9503.416666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2798,11 +2788,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2824,10 +2810,10 @@
         <v>9525</v>
       </c>
       <c r="F69" t="n">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="G69" t="n">
-        <v>9504.5</v>
+        <v>9504.666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2837,11 +2823,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2851,22 +2833,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="D70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="E70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="G70" t="n">
-        <v>9503.75</v>
+        <v>9504.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2876,11 +2858,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2890,7 +2868,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C71" t="n">
         <v>9500</v>
@@ -2899,13 +2877,13 @@
         <v>9500</v>
       </c>
       <c r="E71" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>9502.916666666666</v>
+        <v>9503.75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2915,11 +2893,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2932,19 +2906,19 @@
         <v>9490</v>
       </c>
       <c r="C72" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="D72" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="E72" t="n">
         <v>9490</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>9501.916666666666</v>
+        <v>9502.916666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2954,11 +2928,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2980,10 +2950,10 @@
         <v>9490</v>
       </c>
       <c r="F73" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>9501.416666666666</v>
+        <v>9501.916666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2993,11 +2963,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3010,19 +2976,19 @@
         <v>9490</v>
       </c>
       <c r="C74" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="D74" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="E74" t="n">
         <v>9490</v>
       </c>
       <c r="F74" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G74" t="n">
-        <v>9501.083333333334</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3032,11 +2998,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3046,7 +3008,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C75" t="n">
         <v>9500</v>
@@ -3055,13 +3017,13 @@
         <v>9500</v>
       </c>
       <c r="E75" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="n">
-        <v>9500.416666666666</v>
+        <v>9501.083333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3071,11 +3033,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3097,10 +3055,10 @@
         <v>9500</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
-        <v>9499.583333333334</v>
+        <v>9500.416666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3110,11 +3068,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3127,19 +3081,19 @@
         <v>9500</v>
       </c>
       <c r="C77" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="D77" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="E77" t="n">
         <v>9500</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>9499.083333333334</v>
+        <v>9499.583333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3149,11 +3103,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3113,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="C78" t="n">
         <v>9520</v>
@@ -3172,13 +3122,13 @@
         <v>9520</v>
       </c>
       <c r="E78" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="F78" t="n">
-        <v>6.52</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>9498.583333333334</v>
+        <v>9499.083333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3188,11 +3138,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3205,19 +3151,19 @@
         <v>9520</v>
       </c>
       <c r="C79" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="D79" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="E79" t="n">
         <v>9520</v>
       </c>
       <c r="F79" t="n">
-        <v>186</v>
+        <v>6.52</v>
       </c>
       <c r="G79" t="n">
-        <v>9498.5</v>
+        <v>9498.583333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3227,11 +3173,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3241,7 +3183,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="C80" t="n">
         <v>9545</v>
@@ -3250,13 +3192,13 @@
         <v>9545</v>
       </c>
       <c r="E80" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="F80" t="n">
-        <v>6.41</v>
+        <v>186</v>
       </c>
       <c r="G80" t="n">
-        <v>9498.416666666666</v>
+        <v>9498.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3266,11 +3208,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3292,10 +3230,10 @@
         <v>9545</v>
       </c>
       <c r="F81" t="n">
-        <v>6.34</v>
+        <v>6.41</v>
       </c>
       <c r="G81" t="n">
-        <v>9498.333333333334</v>
+        <v>9498.416666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3305,11 +3243,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3331,10 +3265,10 @@
         <v>9545</v>
       </c>
       <c r="F82" t="n">
-        <v>13.97</v>
+        <v>6.34</v>
       </c>
       <c r="G82" t="n">
-        <v>9498.5</v>
+        <v>9498.333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3344,11 +3278,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3288,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="C83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="D83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="E83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="F83" t="n">
-        <v>13.24</v>
+        <v>13.97</v>
       </c>
       <c r="G83" t="n">
-        <v>9499</v>
+        <v>9498.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3383,11 +3313,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3409,10 +3335,10 @@
         <v>9540</v>
       </c>
       <c r="F84" t="n">
-        <v>6.27</v>
+        <v>13.24</v>
       </c>
       <c r="G84" t="n">
-        <v>9498.666666666666</v>
+        <v>9499</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3422,11 +3348,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3448,10 +3370,10 @@
         <v>9540</v>
       </c>
       <c r="F85" t="n">
-        <v>6.64</v>
+        <v>6.27</v>
       </c>
       <c r="G85" t="n">
-        <v>9499.166666666666</v>
+        <v>9498.666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3461,11 +3383,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3475,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F86" t="n">
-        <v>3.31</v>
+        <v>6.64</v>
       </c>
       <c r="G86" t="n">
-        <v>9499.916666666666</v>
+        <v>9499.166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3500,11 +3418,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3526,10 +3440,10 @@
         <v>9545</v>
       </c>
       <c r="F87" t="n">
-        <v>70.02679999999999</v>
+        <v>3.31</v>
       </c>
       <c r="G87" t="n">
-        <v>9499.833333333334</v>
+        <v>9499.916666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3539,11 +3453,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3556,16 +3466,16 @@
         <v>9545</v>
       </c>
       <c r="C88" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D88" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E88" t="n">
         <v>9545</v>
       </c>
       <c r="F88" t="n">
-        <v>62</v>
+        <v>70.02679999999999</v>
       </c>
       <c r="G88" t="n">
         <v>9499.833333333334</v>
@@ -3578,11 +3488,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3592,7 +3498,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C89" t="n">
         <v>9550</v>
@@ -3601,13 +3507,13 @@
         <v>9550</v>
       </c>
       <c r="E89" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G89" t="n">
-        <v>9500.583333333334</v>
+        <v>9499.833333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3617,11 +3523,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3643,7 +3545,7 @@
         <v>9550</v>
       </c>
       <c r="F90" t="n">
-        <v>103.5</v>
+        <v>30</v>
       </c>
       <c r="G90" t="n">
         <v>9500.583333333334</v>
@@ -3656,11 +3558,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3682,10 +3580,10 @@
         <v>9550</v>
       </c>
       <c r="F91" t="n">
-        <v>34.5</v>
+        <v>103.5</v>
       </c>
       <c r="G91" t="n">
-        <v>9501.416666666666</v>
+        <v>9500.583333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3695,11 +3593,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3721,10 +3615,10 @@
         <v>9550</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>34.5</v>
       </c>
       <c r="G92" t="n">
-        <v>9502.25</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3734,11 +3628,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3760,7 +3650,7 @@
         <v>9550</v>
       </c>
       <c r="F93" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
         <v>9502.25</v>
@@ -3773,11 +3663,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3799,10 +3685,10 @@
         <v>9550</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G94" t="n">
-        <v>9502.5</v>
+        <v>9502.25</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3812,11 +3698,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3838,10 +3720,10 @@
         <v>9550</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G95" t="n">
-        <v>9502.333333333334</v>
+        <v>9502.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3851,11 +3733,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3865,7 +3743,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C96" t="n">
         <v>9550</v>
@@ -3874,13 +3752,13 @@
         <v>9550</v>
       </c>
       <c r="E96" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="F96" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>9504.416666666666</v>
+        <v>9502.333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3890,11 +3768,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3904,7 +3778,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C97" t="n">
         <v>9550</v>
@@ -3913,13 +3787,13 @@
         <v>9550</v>
       </c>
       <c r="E97" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G97" t="n">
-        <v>9505.916666666666</v>
+        <v>9504.416666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3929,11 +3803,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3955,10 +3825,10 @@
         <v>9550</v>
       </c>
       <c r="F98" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="n">
-        <v>9506.166666666666</v>
+        <v>9505.916666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3968,11 +3838,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3994,10 +3860,10 @@
         <v>9550</v>
       </c>
       <c r="F99" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="G99" t="n">
-        <v>9506.666666666666</v>
+        <v>9506.166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4007,11 +3873,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4033,10 +3895,10 @@
         <v>9550</v>
       </c>
       <c r="F100" t="n">
-        <v>67.92400000000001</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
-        <v>9506.916666666666</v>
+        <v>9506.666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4046,11 +3908,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4063,19 +3921,19 @@
         <v>9550</v>
       </c>
       <c r="C101" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="D101" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="E101" t="n">
         <v>9550</v>
       </c>
       <c r="F101" t="n">
-        <v>34.5</v>
+        <v>67.92400000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>9509.75</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4085,11 +3943,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4099,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="C102" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D102" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="E102" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="F102" t="n">
-        <v>3.6073</v>
+        <v>34.5</v>
       </c>
       <c r="G102" t="n">
-        <v>9510.583333333334</v>
+        <v>9509.75</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4124,11 +3978,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +3988,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="C103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="D103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="E103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="F103" t="n">
-        <v>32</v>
+        <v>3.6073</v>
       </c>
       <c r="G103" t="n">
-        <v>9511.25</v>
+        <v>9510.583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4163,11 +4013,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4189,25 +4035,58 @@
         <v>9590</v>
       </c>
       <c r="F104" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="G104" t="n">
-        <v>9512.916666666666</v>
+        <v>9511.25</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F105" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9512.916666666666</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>64.6554</v>
       </c>
       <c r="G2" t="n">
+        <v>9518</v>
+      </c>
+      <c r="H2" t="n">
         <v>9489.583333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>3.4575</v>
       </c>
       <c r="G3" t="n">
+        <v>9516.333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>9491.083333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9545</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,104 +529,117 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
+        <v>9514</v>
+      </c>
+      <c r="H4" t="n">
         <v>9492.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>9485</v>
       </c>
-      <c r="K4" t="n">
-        <v>9545</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>9485</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9480</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9480</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.6289</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9493.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9485</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9485</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9514.333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9494.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>9480</v>
       </c>
-      <c r="C5" t="n">
-        <v>9480</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9480</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9480</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.6289</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9493.25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L6" t="n">
         <v>9485</v>
       </c>
-      <c r="K5" t="n">
-        <v>9545</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9525</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9535</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9535</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9525</v>
-      </c>
-      <c r="F6" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9494.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,18 +663,21 @@
         <v>36</v>
       </c>
       <c r="G7" t="n">
+        <v>9515.666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>9496.583333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,18 +701,21 @@
         <v>30.5</v>
       </c>
       <c r="G8" t="n">
+        <v>9517</v>
+      </c>
+      <c r="H8" t="n">
         <v>9498.083333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,18 +739,21 @@
         <v>369</v>
       </c>
       <c r="G9" t="n">
+        <v>9511.666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>9497.916666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +777,21 @@
         <v>12</v>
       </c>
       <c r="G10" t="n">
+        <v>9512</v>
+      </c>
+      <c r="H10" t="n">
         <v>9498.583333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +815,21 @@
         <v>37.5</v>
       </c>
       <c r="G11" t="n">
+        <v>9512</v>
+      </c>
+      <c r="H11" t="n">
         <v>9499.416666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +853,21 @@
         <v>71.5</v>
       </c>
       <c r="G12" t="n">
+        <v>9515.666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>9500.333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +891,21 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
+        <v>9515.666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>9501.25</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +929,21 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
+        <v>9517.333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>9501.666666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +967,21 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
+        <v>9519</v>
+      </c>
+      <c r="H15" t="n">
         <v>9502.083333333334</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +1005,21 @@
         <v>28</v>
       </c>
       <c r="G16" t="n">
+        <v>9522</v>
+      </c>
+      <c r="H16" t="n">
         <v>9503.916666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1043,21 @@
         <v>26</v>
       </c>
       <c r="G17" t="n">
+        <v>9522.333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>9506</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1081,21 @@
         <v>8.880000000000001</v>
       </c>
       <c r="G18" t="n">
+        <v>9526.666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>9507.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1119,21 @@
         <v>6</v>
       </c>
       <c r="G19" t="n">
+        <v>9531</v>
+      </c>
+      <c r="H19" t="n">
         <v>9508.833333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1157,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
+        <v>9535.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9510.083333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1195,21 @@
         <v>22.7494</v>
       </c>
       <c r="G21" t="n">
+        <v>9536.666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>9511.333333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1233,21 @@
         <v>32</v>
       </c>
       <c r="G22" t="n">
+        <v>9537</v>
+      </c>
+      <c r="H22" t="n">
         <v>9512.25</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1271,21 @@
         <v>199.4047</v>
       </c>
       <c r="G23" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>9512.916666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1309,21 @@
         <v>50.2011</v>
       </c>
       <c r="G24" t="n">
+        <v>9540.333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>9513.166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1347,21 @@
         <v>31.5</v>
       </c>
       <c r="G25" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H25" t="n">
         <v>9514.666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1385,21 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
+        <v>9539.666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>9515.333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1423,21 @@
         <v>245.9735</v>
       </c>
       <c r="G27" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>9515.833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1461,21 @@
         <v>6.29</v>
       </c>
       <c r="G28" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>9516.916666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1499,21 @@
         <v>9.6342</v>
       </c>
       <c r="G29" t="n">
+        <v>9538.333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>9518.666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1537,21 @@
         <v>23.4681</v>
       </c>
       <c r="G30" t="n">
+        <v>9537.333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>9518.916666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1575,21 @@
         <v>75.1276</v>
       </c>
       <c r="G31" t="n">
+        <v>9538</v>
+      </c>
+      <c r="H31" t="n">
         <v>9519.833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1613,21 @@
         <v>31.0912</v>
       </c>
       <c r="G32" t="n">
+        <v>9534.666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>9519.916666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1651,21 @@
         <v>0.9088000000000001</v>
       </c>
       <c r="G33" t="n">
+        <v>9531.333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>9519.583333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1689,21 @@
         <v>992.0471</v>
       </c>
       <c r="G34" t="n">
+        <v>9531.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>9521.166666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1727,21 @@
         <v>32.2283</v>
       </c>
       <c r="G35" t="n">
+        <v>9530.333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>9521.416666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1765,21 @@
         <v>871.4606</v>
       </c>
       <c r="G36" t="n">
+        <v>9531</v>
+      </c>
+      <c r="H36" t="n">
         <v>9522.25</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1803,21 @@
         <v>114.6687</v>
       </c>
       <c r="G37" t="n">
+        <v>9522.666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>9520.833333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1841,21 @@
         <v>20</v>
       </c>
       <c r="G38" t="n">
+        <v>9517.666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>9520.583333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1879,21 @@
         <v>11.1779</v>
       </c>
       <c r="G39" t="n">
+        <v>9519.333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>9520.833333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1917,21 @@
         <v>13.0967</v>
       </c>
       <c r="G40" t="n">
+        <v>9516.666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>9520.916666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1955,21 @@
         <v>38</v>
       </c>
       <c r="G41" t="n">
+        <v>9518.333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>9521.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +1993,21 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
+        <v>9512.666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>9520.083333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2031,21 @@
         <v>12.86</v>
       </c>
       <c r="G43" t="n">
+        <v>9511.333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>9520.666666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2069,21 @@
         <v>536.3916</v>
       </c>
       <c r="G44" t="n">
+        <v>9511.333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>9521.166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2107,21 @@
         <v>6</v>
       </c>
       <c r="G45" t="n">
+        <v>9510.333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>9520.833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2145,21 @@
         <v>46</v>
       </c>
       <c r="G46" t="n">
+        <v>9509.666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>9521.333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2183,21 @@
         <v>56</v>
       </c>
       <c r="G47" t="n">
+        <v>9509.666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>9521.166666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2221,21 @@
         <v>72.59439999999999</v>
       </c>
       <c r="G48" t="n">
+        <v>9512.333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>9521.666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2259,21 @@
         <v>55.6342</v>
       </c>
       <c r="G49" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H49" t="n">
         <v>9521.833333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2297,21 @@
         <v>94.41459999999999</v>
       </c>
       <c r="G50" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H50" t="n">
         <v>9522</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2335,21 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
+        <v>9505</v>
+      </c>
+      <c r="H51" t="n">
         <v>9521.75</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2373,21 @@
         <v>682</v>
       </c>
       <c r="G52" t="n">
+        <v>9505.666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>9520.25</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2411,21 @@
         <v>187</v>
       </c>
       <c r="G53" t="n">
+        <v>9511</v>
+      </c>
+      <c r="H53" t="n">
         <v>9520.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2449,21 @@
         <v>15.8651</v>
       </c>
       <c r="G54" t="n">
+        <v>9504.333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>9518.916666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2487,21 @@
         <v>22.3678</v>
       </c>
       <c r="G55" t="n">
+        <v>9498</v>
+      </c>
+      <c r="H55" t="n">
         <v>9517.166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2525,21 @@
         <v>4.8893</v>
       </c>
       <c r="G56" t="n">
+        <v>9490.333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>9515.083333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2563,21 @@
         <v>220.1467</v>
       </c>
       <c r="G57" t="n">
+        <v>9490.666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>9513.833333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2601,21 @@
         <v>4.8893</v>
       </c>
       <c r="G58" t="n">
+        <v>9487.333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>9512.666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2639,21 @@
         <v>5</v>
       </c>
       <c r="G59" t="n">
+        <v>9478.333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>9511.333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2677,21 @@
         <v>4.2019</v>
       </c>
       <c r="G60" t="n">
+        <v>9474.333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>9510.25</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2715,21 @@
         <v>16.7987</v>
       </c>
       <c r="G61" t="n">
+        <v>9466.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>9509.083333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2753,21 @@
         <v>0.3231</v>
       </c>
       <c r="G62" t="n">
+        <v>9461</v>
+      </c>
+      <c r="H62" t="n">
         <v>9506.916666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2791,21 @@
         <v>214.4752</v>
       </c>
       <c r="G63" t="n">
+        <v>9456</v>
+      </c>
+      <c r="H63" t="n">
         <v>9506.583333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2829,21 @@
         <v>27.8</v>
       </c>
       <c r="G64" t="n">
+        <v>9447.333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>9505.166666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +2867,21 @@
         <v>611.9446</v>
       </c>
       <c r="G65" t="n">
+        <v>9443.666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>9505.166666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +2905,21 @@
         <v>1.3258</v>
       </c>
       <c r="G66" t="n">
+        <v>9445.666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>9504.583333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +2943,21 @@
         <v>6.49</v>
       </c>
       <c r="G67" t="n">
+        <v>9450.666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>9504</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +2981,21 @@
         <v>6.22</v>
       </c>
       <c r="G68" t="n">
+        <v>9448.666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>9503.416666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3019,21 @@
         <v>6.39</v>
       </c>
       <c r="G69" t="n">
+        <v>9454.666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>9504.666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3057,21 @@
         <v>6.2</v>
       </c>
       <c r="G70" t="n">
+        <v>9461.333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>9504.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3095,21 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
+        <v>9466.666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>9503.75</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3133,21 @@
         <v>11</v>
       </c>
       <c r="G72" t="n">
+        <v>9472</v>
+      </c>
+      <c r="H72" t="n">
         <v>9502.916666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3171,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
+        <v>9472.666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>9501.916666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3209,21 @@
         <v>42</v>
       </c>
       <c r="G74" t="n">
+        <v>9477.666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>9501.416666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3247,21 @@
         <v>34</v>
       </c>
       <c r="G75" t="n">
+        <v>9482.333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>9501.083333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3285,21 @@
         <v>32</v>
       </c>
       <c r="G76" t="n">
+        <v>9487.333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>9500.416666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3323,21 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
+        <v>9493</v>
+      </c>
+      <c r="H77" t="n">
         <v>9499.583333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3361,21 @@
         <v>40</v>
       </c>
       <c r="G78" t="n">
+        <v>9496.666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>9499.083333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3399,21 @@
         <v>6.52</v>
       </c>
       <c r="G79" t="n">
+        <v>9504.666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>9498.583333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3437,21 @@
         <v>186</v>
       </c>
       <c r="G80" t="n">
+        <v>9509</v>
+      </c>
+      <c r="H80" t="n">
         <v>9498.5</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3475,21 @@
         <v>6.41</v>
       </c>
       <c r="G81" t="n">
+        <v>9512</v>
+      </c>
+      <c r="H81" t="n">
         <v>9498.416666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3513,21 @@
         <v>6.34</v>
       </c>
       <c r="G82" t="n">
+        <v>9514.333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>9498.333333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3551,21 @@
         <v>13.97</v>
       </c>
       <c r="G83" t="n">
+        <v>9516.666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>9498.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3589,21 @@
         <v>13.24</v>
       </c>
       <c r="G84" t="n">
+        <v>9517.666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>9499</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3627,21 @@
         <v>6.27</v>
       </c>
       <c r="G85" t="n">
+        <v>9518.666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>9498.666666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3665,21 @@
         <v>6.64</v>
       </c>
       <c r="G86" t="n">
+        <v>9521.333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>9499.166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3703,21 @@
         <v>3.31</v>
       </c>
       <c r="G87" t="n">
+        <v>9524.333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>9499.916666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3741,21 @@
         <v>70.02679999999999</v>
       </c>
       <c r="G88" t="n">
+        <v>9528</v>
+      </c>
+      <c r="H88" t="n">
         <v>9499.833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3779,21 @@
         <v>62</v>
       </c>
       <c r="G89" t="n">
+        <v>9532</v>
+      </c>
+      <c r="H89" t="n">
         <v>9499.833333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +3817,21 @@
         <v>30</v>
       </c>
       <c r="G90" t="n">
+        <v>9535.333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>9500.583333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +3855,21 @@
         <v>103.5</v>
       </c>
       <c r="G91" t="n">
+        <v>9538.666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>9500.583333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +3893,21 @@
         <v>34.5</v>
       </c>
       <c r="G92" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H92" t="n">
         <v>9501.416666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +3931,21 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
+        <v>9544</v>
+      </c>
+      <c r="H93" t="n">
         <v>9502.25</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +3969,21 @@
         <v>62</v>
       </c>
       <c r="G94" t="n">
+        <v>9546</v>
+      </c>
+      <c r="H94" t="n">
         <v>9502.25</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4007,21 @@
         <v>42</v>
       </c>
       <c r="G95" t="n">
+        <v>9546.333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>9502.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4045,21 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
+        <v>9546.666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>9502.333333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4083,21 @@
         <v>53</v>
       </c>
       <c r="G97" t="n">
+        <v>9547</v>
+      </c>
+      <c r="H97" t="n">
         <v>9504.416666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4121,21 @@
         <v>32</v>
       </c>
       <c r="G98" t="n">
+        <v>9547.333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>9505.916666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4159,21 @@
         <v>33</v>
       </c>
       <c r="G99" t="n">
+        <v>9548</v>
+      </c>
+      <c r="H99" t="n">
         <v>9506.166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4197,21 @@
         <v>131</v>
       </c>
       <c r="G100" t="n">
+        <v>9548.666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>9506.666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4235,21 @@
         <v>67.92400000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>9549.333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>9506.916666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4273,21 @@
         <v>34.5</v>
       </c>
       <c r="G102" t="n">
+        <v>9552</v>
+      </c>
+      <c r="H102" t="n">
         <v>9509.75</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4311,21 @@
         <v>3.6073</v>
       </c>
       <c r="G103" t="n">
+        <v>9554.333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>9510.583333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4349,21 @@
         <v>32</v>
       </c>
       <c r="G104" t="n">
+        <v>9557</v>
+      </c>
+      <c r="H104" t="n">
         <v>9511.25</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4387,401 @@
         <v>38.5</v>
       </c>
       <c r="G105" t="n">
+        <v>9559.666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>9512.916666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9560.333333333334</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9513.25</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11.7954</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9561</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9514.25</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F108" t="n">
+        <v>95</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9563.666666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9515.083333333334</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9566.333333333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>9516.083333333334</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F110" t="n">
+        <v>34</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9569.666666666666</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9517.166666666666</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F111" t="n">
+        <v>34.6288</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9570</v>
+      </c>
+      <c r="H111" t="n">
+        <v>9518.583333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9573</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9521.25</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9576</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9522.166666666666</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9579</v>
+      </c>
+      <c r="H114" t="n">
+        <v>9524.833333333334</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9582.333333333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9527.75</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -441,33 +436,30 @@
         <v>9500</v>
       </c>
       <c r="C2" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="D2" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="E2" t="n">
         <v>9500</v>
       </c>
       <c r="F2" t="n">
-        <v>64.6554</v>
+        <v>38.5</v>
       </c>
       <c r="G2" t="n">
-        <v>9518</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="H2" t="n">
-        <v>9489.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9485</v>
+        <v>9455</v>
       </c>
       <c r="C3" t="n">
-        <v>9485</v>
+        <v>9455</v>
       </c>
       <c r="D3" t="n">
-        <v>9485</v>
+        <v>9455</v>
       </c>
       <c r="E3" t="n">
-        <v>9485</v>
+        <v>9455</v>
       </c>
       <c r="F3" t="n">
-        <v>3.4575</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>9516.333333333334</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H3" t="n">
-        <v>9491.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>9520</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9520</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,40 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9485</v>
+        <v>9445</v>
       </c>
       <c r="C4" t="n">
-        <v>9485</v>
+        <v>9520</v>
       </c>
       <c r="D4" t="n">
-        <v>9485</v>
+        <v>9520</v>
       </c>
       <c r="E4" t="n">
-        <v>9485</v>
+        <v>9440</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>138.8781</v>
       </c>
       <c r="G4" t="n">
-        <v>9514</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="H4" t="n">
-        <v>9492.5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9455</v>
       </c>
       <c r="K4" t="n">
-        <v>9485</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9485</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -556,44 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9480</v>
+        <v>9505</v>
       </c>
       <c r="C5" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="D5" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="E5" t="n">
-        <v>9480</v>
+        <v>9505</v>
       </c>
       <c r="F5" t="n">
-        <v>17.6289</v>
+        <v>20.9</v>
       </c>
       <c r="G5" t="n">
-        <v>9511</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="H5" t="n">
-        <v>9493.25</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9520</v>
       </c>
       <c r="K5" t="n">
-        <v>9485</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9485</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,44 +593,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C6" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="D6" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="E6" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="F6" t="n">
-        <v>68.5</v>
+        <v>6.33</v>
       </c>
       <c r="G6" t="n">
-        <v>9514.333333333334</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="H6" t="n">
-        <v>9494.5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9510</v>
       </c>
       <c r="K6" t="n">
-        <v>9480</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9485</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -648,36 +636,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9535</v>
+        <v>9475</v>
       </c>
       <c r="C7" t="n">
-        <v>9545</v>
+        <v>9475</v>
       </c>
       <c r="D7" t="n">
-        <v>9545</v>
+        <v>9475</v>
       </c>
       <c r="E7" t="n">
-        <v>9535</v>
+        <v>9475</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>1.07150369</v>
       </c>
       <c r="G7" t="n">
-        <v>9515.666666666666</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>9496.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,36 +679,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9545</v>
+        <v>9460</v>
       </c>
       <c r="C8" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="D8" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="E8" t="n">
-        <v>9545</v>
+        <v>9460</v>
       </c>
       <c r="F8" t="n">
-        <v>30.5</v>
+        <v>130.3003</v>
       </c>
       <c r="G8" t="n">
-        <v>9517</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>9498.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>9475</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -724,36 +722,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9485</v>
+        <v>9460</v>
       </c>
       <c r="C9" t="n">
-        <v>9450</v>
+        <v>9515</v>
       </c>
       <c r="D9" t="n">
-        <v>9485</v>
+        <v>9515</v>
       </c>
       <c r="E9" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="F9" t="n">
-        <v>369</v>
+        <v>86.8703</v>
       </c>
       <c r="G9" t="n">
-        <v>9511.666666666666</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>9497.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,36 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="C10" t="n">
-        <v>9535</v>
+        <v>9500</v>
       </c>
       <c r="D10" t="n">
-        <v>9535</v>
+        <v>9500</v>
       </c>
       <c r="E10" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>34.5</v>
       </c>
       <c r="G10" t="n">
-        <v>9512</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="H10" t="n">
-        <v>9498.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>9515</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -800,36 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9535</v>
+        <v>9500</v>
       </c>
       <c r="C11" t="n">
-        <v>9545</v>
+        <v>9500</v>
       </c>
       <c r="D11" t="n">
-        <v>9545</v>
+        <v>9500</v>
       </c>
       <c r="E11" t="n">
-        <v>9530</v>
+        <v>9500</v>
       </c>
       <c r="F11" t="n">
-        <v>37.5</v>
+        <v>66.5</v>
       </c>
       <c r="G11" t="n">
-        <v>9512</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="H11" t="n">
-        <v>9499.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,36 +851,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9545</v>
+        <v>9495</v>
       </c>
       <c r="C12" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="D12" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E12" t="n">
-        <v>9545</v>
+        <v>9495</v>
       </c>
       <c r="F12" t="n">
-        <v>71.5</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>9515.666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="H12" t="n">
-        <v>9500.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,36 +894,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="C13" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="D13" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="E13" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
-        <v>9515.666666666666</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9501.25</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>9495</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,36 +937,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C14" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>9520</v>
       </c>
-      <c r="D14" t="n">
-        <v>9540</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="K14" t="n">
         <v>9520</v>
       </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9517.333333333334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9501.666666666666</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,37 +980,42 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C15" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K15" t="n">
         <v>9520</v>
       </c>
-      <c r="D15" t="n">
-        <v>9550</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9520</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9519</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9502.083333333334</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9939495798319328</v>
       </c>
     </row>
     <row r="16">
@@ -990,36 +1023,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C16" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="D16" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="E16" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>9522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>9503.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9520</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,36 +1066,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C17" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D17" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E17" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>6.44</v>
       </c>
       <c r="G17" t="n">
-        <v>9522.333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>9506</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>9510</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9510</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,36 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C18" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="D18" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="E18" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F18" t="n">
-        <v>8.880000000000001</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>9526.666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H18" t="n">
-        <v>9507.5</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,36 +1148,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="C19" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D19" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E19" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>41.5</v>
       </c>
       <c r="G19" t="n">
-        <v>9531</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H19" t="n">
-        <v>9508.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,36 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="C20" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="D20" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E20" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>34.9164</v>
       </c>
       <c r="G20" t="n">
-        <v>9535.666666666666</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="H20" t="n">
-        <v>9510.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,36 +1234,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C21" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D21" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E21" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F21" t="n">
-        <v>22.7494</v>
+        <v>4.2939</v>
       </c>
       <c r="G21" t="n">
-        <v>9536.666666666666</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H21" t="n">
-        <v>9511.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,36 +1277,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="C22" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D22" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E22" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="F22" t="n">
-        <v>32</v>
+        <v>6.38</v>
       </c>
       <c r="G22" t="n">
-        <v>9537</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="H22" t="n">
-        <v>9512.25</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,36 +1320,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="C23" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="D23" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="E23" t="n">
-        <v>9535</v>
+        <v>9525</v>
       </c>
       <c r="F23" t="n">
-        <v>199.4047</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>9536.333333333334</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>9512.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,36 +1363,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C24" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="D24" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="E24" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="F24" t="n">
-        <v>50.2011</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>9540.333333333334</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>9513.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,36 +1406,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="C25" t="n">
-        <v>9560</v>
+        <v>9545</v>
       </c>
       <c r="D25" t="n">
-        <v>9560</v>
+        <v>9545</v>
       </c>
       <c r="E25" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="F25" t="n">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="G25" t="n">
-        <v>9542</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="H25" t="n">
-        <v>9514.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,36 +1449,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C26" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="D26" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="E26" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>0.1076</v>
       </c>
       <c r="G26" t="n">
-        <v>9539.666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="H26" t="n">
-        <v>9515.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,36 +1492,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9510</v>
+        <v>9550</v>
       </c>
       <c r="C27" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="D27" t="n">
-        <v>9510</v>
+        <v>9550</v>
       </c>
       <c r="E27" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="F27" t="n">
-        <v>245.9735</v>
+        <v>6.83</v>
       </c>
       <c r="G27" t="n">
-        <v>9536.333333333334</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H27" t="n">
-        <v>9515.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>9495</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,36 +1535,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9545</v>
+        <v>9495</v>
       </c>
       <c r="C28" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="D28" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E28" t="n">
-        <v>9545</v>
+        <v>9495</v>
       </c>
       <c r="F28" t="n">
-        <v>6.29</v>
+        <v>21.9308</v>
       </c>
       <c r="G28" t="n">
-        <v>9536.333333333334</v>
+        <v>-11.53846153846154</v>
       </c>
       <c r="H28" t="n">
-        <v>9516.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,37 +1578,42 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="C29" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="D29" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E29" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="F29" t="n">
-        <v>9.6342</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>9538.333333333334</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="H29" t="n">
-        <v>9518.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
-        <v>1</v>
+        <v>9495</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9510</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9934227129337539</v>
       </c>
     </row>
     <row r="30">
@@ -1522,36 +1621,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9505</v>
+        <v>9495</v>
       </c>
       <c r="C30" t="n">
-        <v>9505</v>
+        <v>9495</v>
       </c>
       <c r="D30" t="n">
-        <v>9505</v>
+        <v>9495</v>
       </c>
       <c r="E30" t="n">
-        <v>9505</v>
+        <v>9495</v>
       </c>
       <c r="F30" t="n">
-        <v>23.4681</v>
+        <v>9.3888</v>
       </c>
       <c r="G30" t="n">
-        <v>9537.333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>9518.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>9495</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9495</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,36 +1664,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="C31" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D31" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E31" t="n">
-        <v>9505</v>
+        <v>9500</v>
       </c>
       <c r="F31" t="n">
-        <v>75.1276</v>
+        <v>64.6554</v>
       </c>
       <c r="G31" t="n">
-        <v>9538</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="H31" t="n">
-        <v>9519.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>9495</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9495</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,36 +1707,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9505</v>
+        <v>9485</v>
       </c>
       <c r="C32" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="D32" t="n">
-        <v>9505</v>
+        <v>9485</v>
       </c>
       <c r="E32" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="F32" t="n">
-        <v>31.0912</v>
+        <v>3.4575</v>
       </c>
       <c r="G32" t="n">
-        <v>9534.666666666666</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="H32" t="n">
-        <v>9519.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>9545</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9545</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1636,36 +1746,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="C33" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="D33" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="E33" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9088000000000001</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>9531.333333333334</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="H33" t="n">
-        <v>9519.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9545</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,36 +1789,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9495</v>
+        <v>9480</v>
       </c>
       <c r="C34" t="n">
-        <v>9550</v>
+        <v>9480</v>
       </c>
       <c r="D34" t="n">
-        <v>9565</v>
+        <v>9480</v>
       </c>
       <c r="E34" t="n">
         <v>9480</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0471</v>
+        <v>17.6289</v>
       </c>
       <c r="G34" t="n">
-        <v>9531.333333333334</v>
+        <v>-23.63636363636364</v>
       </c>
       <c r="H34" t="n">
-        <v>9521.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9545</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,36 +1832,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9540</v>
+        <v>9525</v>
       </c>
       <c r="C35" t="n">
         <v>9535</v>
       </c>
       <c r="D35" t="n">
-        <v>9540</v>
+        <v>9535</v>
       </c>
       <c r="E35" t="n">
-        <v>9535</v>
+        <v>9525</v>
       </c>
       <c r="F35" t="n">
-        <v>32.2283</v>
+        <v>68.5</v>
       </c>
       <c r="G35" t="n">
-        <v>9530.333333333334</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H35" t="n">
-        <v>9521.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>9480</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9480</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,36 +1871,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>9535</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9535</v>
+      </c>
+      <c r="F36" t="n">
+        <v>36</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.127659574468085</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K36" t="n">
         <v>9480</v>
       </c>
-      <c r="C36" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9480</v>
-      </c>
-      <c r="F36" t="n">
-        <v>871.4606</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9531</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9522.25</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,36 +1914,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9475</v>
+        <v>9545</v>
       </c>
       <c r="C37" t="n">
-        <v>9425</v>
+        <v>9545</v>
       </c>
       <c r="D37" t="n">
-        <v>9475</v>
+        <v>9545</v>
       </c>
       <c r="E37" t="n">
-        <v>9425</v>
+        <v>9545</v>
       </c>
       <c r="F37" t="n">
-        <v>114.6687</v>
+        <v>30.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9522.666666666666</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="H37" t="n">
-        <v>9520.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,36 +1957,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9460</v>
+        <v>9485</v>
       </c>
       <c r="C38" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="D38" t="n">
-        <v>9460</v>
+        <v>9485</v>
       </c>
       <c r="E38" t="n">
-        <v>9460</v>
+        <v>9450</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="G38" t="n">
-        <v>9517.666666666666</v>
+        <v>-16.36363636363636</v>
       </c>
       <c r="H38" t="n">
-        <v>9520.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="C39" t="n">
         <v>9535</v>
@@ -1873,27 +2009,32 @@
         <v>9535</v>
       </c>
       <c r="E39" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="F39" t="n">
-        <v>11.1779</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>9519.333333333334</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H39" t="n">
-        <v>9520.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>9450</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,33 +2046,38 @@
         <v>9535</v>
       </c>
       <c r="C40" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D40" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
         <v>9535</v>
       </c>
-      <c r="E40" t="n">
-        <v>9520</v>
-      </c>
-      <c r="F40" t="n">
-        <v>13.0967</v>
-      </c>
-      <c r="G40" t="n">
-        <v>9516.666666666666</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9520.916666666666</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="K40" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,36 +2086,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="C41" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D41" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="E41" t="n">
-        <v>9530</v>
+        <v>9545</v>
       </c>
       <c r="F41" t="n">
-        <v>38</v>
+        <v>71.5</v>
       </c>
       <c r="G41" t="n">
-        <v>9518.333333333334</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="H41" t="n">
-        <v>9521.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,36 +2129,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C42" t="n">
-        <v>9415</v>
+        <v>9550</v>
       </c>
       <c r="D42" t="n">
-        <v>9425</v>
+        <v>9550</v>
       </c>
       <c r="E42" t="n">
-        <v>9415</v>
+        <v>9540</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>9512.666666666666</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="H42" t="n">
-        <v>9520.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,36 +2172,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9510</v>
+        <v>9540</v>
       </c>
       <c r="C43" t="n">
-        <v>9530</v>
+        <v>9520</v>
       </c>
       <c r="D43" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="E43" t="n">
-        <v>9510</v>
+        <v>9520</v>
       </c>
       <c r="F43" t="n">
-        <v>12.86</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>9511.333333333334</v>
+        <v>13.79310344827586</v>
       </c>
       <c r="H43" t="n">
-        <v>9520.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,36 +2215,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="C44" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="D44" t="n">
         <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9430</v>
+        <v>9520</v>
       </c>
       <c r="F44" t="n">
-        <v>536.3916</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>9511.333333333334</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="H44" t="n">
-        <v>9521.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,36 +2258,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="C45" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="D45" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="E45" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>9510.333333333334</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="H45" t="n">
-        <v>9520.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,36 +2301,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9490</v>
+        <v>9540</v>
       </c>
       <c r="C46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E46" t="n">
         <v>9540</v>
       </c>
-      <c r="D46" t="n">
+      <c r="F46" t="n">
+        <v>26</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.96078431372549</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
         <v>9540</v>
       </c>
-      <c r="E46" t="n">
-        <v>9490</v>
-      </c>
-      <c r="F46" t="n">
-        <v>46</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9509.666666666666</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9521.333333333334</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="K46" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,36 +2344,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="C47" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="D47" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="E47" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="F47" t="n">
-        <v>56</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>9509.666666666666</v>
+        <v>62.5</v>
       </c>
       <c r="H47" t="n">
-        <v>9521.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,36 +2387,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="C48" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="D48" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E48" t="n">
-        <v>9450</v>
+        <v>9550</v>
       </c>
       <c r="F48" t="n">
-        <v>72.59439999999999</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>9512.333333333334</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>9521.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2244,37 +2430,42 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9445</v>
+        <v>9550</v>
       </c>
       <c r="C49" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="D49" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="E49" t="n">
-        <v>9445</v>
+        <v>9550</v>
       </c>
       <c r="F49" t="n">
-        <v>55.6342</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>9511</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H49" t="n">
-        <v>9521.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
-        <v>1</v>
+        <v>9550</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9480</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1.002383966244726</v>
       </c>
     </row>
     <row r="50">
@@ -2282,36 +2473,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9530</v>
+        <v>9500</v>
       </c>
       <c r="C50" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D50" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="E50" t="n">
-        <v>9530</v>
+        <v>9500</v>
       </c>
       <c r="F50" t="n">
-        <v>94.41459999999999</v>
+        <v>22.7494</v>
       </c>
       <c r="G50" t="n">
-        <v>9511</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>9522</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,36 +2516,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="C51" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="D51" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="E51" t="n">
-        <v>9470</v>
+        <v>9550</v>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>9505</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9521.75</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,36 +2559,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9435</v>
+        <v>9550</v>
       </c>
       <c r="C52" t="n">
-        <v>9435</v>
+        <v>9535</v>
       </c>
       <c r="D52" t="n">
-        <v>9435</v>
+        <v>9580</v>
       </c>
       <c r="E52" t="n">
-        <v>9435</v>
+        <v>9535</v>
       </c>
       <c r="F52" t="n">
-        <v>682</v>
+        <v>199.4047</v>
       </c>
       <c r="G52" t="n">
-        <v>9505.666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>9520.25</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,36 +2602,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="C53" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="D53" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="E53" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="F53" t="n">
-        <v>187</v>
+        <v>50.2011</v>
       </c>
       <c r="G53" t="n">
-        <v>9511</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H53" t="n">
-        <v>9520.5</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K53" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,36 +2645,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9540</v>
+        <v>9535</v>
       </c>
       <c r="C54" t="n">
-        <v>9435</v>
+        <v>9560</v>
       </c>
       <c r="D54" t="n">
-        <v>9540</v>
+        <v>9560</v>
       </c>
       <c r="E54" t="n">
-        <v>9435</v>
+        <v>9535</v>
       </c>
       <c r="F54" t="n">
-        <v>15.8651</v>
+        <v>31.5</v>
       </c>
       <c r="G54" t="n">
-        <v>9504.333333333334</v>
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>9518.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,36 +2688,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9425</v>
+        <v>9510</v>
       </c>
       <c r="C55" t="n">
-        <v>9425</v>
+        <v>9510</v>
       </c>
       <c r="D55" t="n">
-        <v>9425</v>
+        <v>9510</v>
       </c>
       <c r="E55" t="n">
-        <v>9425</v>
+        <v>9510</v>
       </c>
       <c r="F55" t="n">
-        <v>22.3678</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>9498</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="H55" t="n">
-        <v>9517.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>9560</v>
+      </c>
+      <c r="K55" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,36 +2731,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="C56" t="n">
-        <v>9420</v>
+        <v>9500</v>
       </c>
       <c r="D56" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="E56" t="n">
-        <v>9420</v>
+        <v>9500</v>
       </c>
       <c r="F56" t="n">
-        <v>4.8893</v>
+        <v>245.9735</v>
       </c>
       <c r="G56" t="n">
-        <v>9490.333333333334</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>9515.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,36 +2774,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9420</v>
+        <v>9545</v>
       </c>
       <c r="C57" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="D57" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="E57" t="n">
-        <v>9420</v>
+        <v>9545</v>
       </c>
       <c r="F57" t="n">
-        <v>220.1467</v>
+        <v>6.29</v>
       </c>
       <c r="G57" t="n">
-        <v>9490.666666666666</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>9513.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,36 +2817,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="C58" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="D58" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="E58" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="F58" t="n">
-        <v>4.8893</v>
+        <v>9.6342</v>
       </c>
       <c r="G58" t="n">
-        <v>9487.333333333334</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9512.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2624,36 +2860,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9415</v>
+        <v>9505</v>
       </c>
       <c r="C59" t="n">
-        <v>9415</v>
+        <v>9505</v>
       </c>
       <c r="D59" t="n">
-        <v>9415</v>
+        <v>9505</v>
       </c>
       <c r="E59" t="n">
-        <v>9415</v>
+        <v>9505</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>23.4681</v>
       </c>
       <c r="G59" t="n">
-        <v>9478.333333333334</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="H59" t="n">
-        <v>9511.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2662,36 +2903,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9430</v>
+        <v>9505</v>
       </c>
       <c r="C60" t="n">
-        <v>9430</v>
+        <v>9550</v>
       </c>
       <c r="D60" t="n">
-        <v>9430</v>
+        <v>9550</v>
       </c>
       <c r="E60" t="n">
-        <v>9430</v>
+        <v>9505</v>
       </c>
       <c r="F60" t="n">
-        <v>4.2019</v>
+        <v>75.1276</v>
       </c>
       <c r="G60" t="n">
-        <v>9474.333333333334</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>9510.25</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+        <v>9505</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,37 +2946,42 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9425</v>
+        <v>9505</v>
       </c>
       <c r="C61" t="n">
-        <v>9425</v>
+        <v>9500</v>
       </c>
       <c r="D61" t="n">
-        <v>9425</v>
+        <v>9505</v>
       </c>
       <c r="E61" t="n">
-        <v>9425</v>
+        <v>9500</v>
       </c>
       <c r="F61" t="n">
-        <v>16.7987</v>
+        <v>31.0912</v>
       </c>
       <c r="G61" t="n">
-        <v>9466.666666666666</v>
+        <v>-10.76923076923077</v>
       </c>
       <c r="H61" t="n">
-        <v>9509.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
-        <v>1</v>
+        <v>9550</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9897643979057592</v>
       </c>
     </row>
     <row r="62">
@@ -2738,36 +2989,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9455</v>
+        <v>9500</v>
       </c>
       <c r="C62" t="n">
-        <v>9415</v>
+        <v>9500</v>
       </c>
       <c r="D62" t="n">
-        <v>9455</v>
+        <v>9500</v>
       </c>
       <c r="E62" t="n">
-        <v>9415</v>
+        <v>9500</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3231</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>9461</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>9506.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>9500</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9500</v>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,36 +3028,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9410</v>
+        <v>9495</v>
       </c>
       <c r="C63" t="n">
-        <v>9465</v>
+        <v>9550</v>
       </c>
       <c r="D63" t="n">
-        <v>9465</v>
+        <v>9565</v>
       </c>
       <c r="E63" t="n">
-        <v>9400</v>
+        <v>9480</v>
       </c>
       <c r="F63" t="n">
-        <v>214.4752</v>
+        <v>992.0471</v>
       </c>
       <c r="G63" t="n">
-        <v>9456</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>9506.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,36 +3071,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9400</v>
+        <v>9540</v>
       </c>
       <c r="C64" t="n">
-        <v>9400</v>
+        <v>9535</v>
       </c>
       <c r="D64" t="n">
-        <v>9400</v>
+        <v>9540</v>
       </c>
       <c r="E64" t="n">
-        <v>9400</v>
+        <v>9535</v>
       </c>
       <c r="F64" t="n">
-        <v>27.8</v>
+        <v>32.2283</v>
       </c>
       <c r="G64" t="n">
-        <v>9447.333333333334</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="H64" t="n">
-        <v>9505.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,36 +3114,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9400</v>
+        <v>9480</v>
       </c>
       <c r="C65" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E65" t="n">
         <v>9480</v>
       </c>
-      <c r="D65" t="n">
-        <v>9480</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9400</v>
-      </c>
       <c r="F65" t="n">
-        <v>611.9446</v>
+        <v>871.4606</v>
       </c>
       <c r="G65" t="n">
-        <v>9443.666666666666</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>9505.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,36 +3157,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9480</v>
+        <v>9475</v>
       </c>
       <c r="C66" t="n">
-        <v>9500</v>
+        <v>9425</v>
       </c>
       <c r="D66" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="E66" t="n">
-        <v>9480</v>
+        <v>9425</v>
       </c>
       <c r="F66" t="n">
-        <v>1.3258</v>
+        <v>114.6687</v>
       </c>
       <c r="G66" t="n">
-        <v>9445.666666666666</v>
+        <v>-34.24657534246575</v>
       </c>
       <c r="H66" t="n">
-        <v>9504.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>9560</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,36 +3200,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="C67" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="D67" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="E67" t="n">
-        <v>9510</v>
+        <v>9460</v>
       </c>
       <c r="F67" t="n">
-        <v>6.49</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>9450.666666666666</v>
+        <v>-22.5</v>
       </c>
       <c r="H67" t="n">
-        <v>9504</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>9425</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,36 +3243,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C68" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="D68" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="E68" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="F68" t="n">
-        <v>6.22</v>
+        <v>11.1779</v>
       </c>
       <c r="G68" t="n">
-        <v>9448.666666666666</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="H68" t="n">
-        <v>9503.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,36 +3286,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9525</v>
+        <v>9535</v>
       </c>
       <c r="C69" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="D69" t="n">
-        <v>9525</v>
+        <v>9535</v>
       </c>
       <c r="E69" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="F69" t="n">
-        <v>6.39</v>
+        <v>13.0967</v>
       </c>
       <c r="G69" t="n">
-        <v>9454.666666666666</v>
+        <v>-7.5</v>
       </c>
       <c r="H69" t="n">
-        <v>9504.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3042,36 +3329,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="C70" t="n">
-        <v>9525</v>
+        <v>9535</v>
       </c>
       <c r="D70" t="n">
-        <v>9525</v>
+        <v>9535</v>
       </c>
       <c r="E70" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="F70" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="G70" t="n">
-        <v>9461.333333333334</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="H70" t="n">
-        <v>9504.5</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,36 +3372,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9500</v>
+        <v>9425</v>
       </c>
       <c r="C71" t="n">
-        <v>9500</v>
+        <v>9415</v>
       </c>
       <c r="D71" t="n">
-        <v>9500</v>
+        <v>9425</v>
       </c>
       <c r="E71" t="n">
-        <v>9500</v>
+        <v>9415</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>9466.666666666666</v>
+        <v>-17.52577319587629</v>
       </c>
       <c r="H71" t="n">
-        <v>9503.75</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,36 +3415,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="C72" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="D72" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="E72" t="n">
-        <v>9490</v>
+        <v>9510</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>12.86</v>
       </c>
       <c r="G72" t="n">
-        <v>9472</v>
+        <v>-3.636363636363636</v>
       </c>
       <c r="H72" t="n">
-        <v>9502.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>9415</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,36 +3458,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9490</v>
+        <v>9525</v>
       </c>
       <c r="C73" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="D73" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="E73" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>536.3916</v>
       </c>
       <c r="G73" t="n">
-        <v>9472.666666666666</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="H73" t="n">
-        <v>9501.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,25 +3513,30 @@
         <v>9490</v>
       </c>
       <c r="F74" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>9477.666666666666</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="H74" t="n">
-        <v>9501.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>1</v>
+        <v>9550</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9939473684210526</v>
       </c>
     </row>
     <row r="75">
@@ -3235,33 +3547,38 @@
         <v>9490</v>
       </c>
       <c r="C75" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="D75" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="E75" t="n">
         <v>9490</v>
       </c>
       <c r="F75" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G75" t="n">
-        <v>9482.333333333334</v>
+        <v>22.77227722772277</v>
       </c>
       <c r="H75" t="n">
-        <v>9501.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,7 +3587,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="C76" t="n">
         <v>9500</v>
@@ -3279,27 +3596,32 @@
         <v>9500</v>
       </c>
       <c r="E76" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G76" t="n">
-        <v>9487.333333333334</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="H76" t="n">
-        <v>9500.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,36 +3630,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="C77" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="D77" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="E77" t="n">
-        <v>9500</v>
+        <v>9450</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>72.59439999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>9493</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H77" t="n">
-        <v>9499.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K77" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,36 +3673,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9500</v>
+        <v>9445</v>
       </c>
       <c r="C78" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="D78" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="E78" t="n">
-        <v>9500</v>
+        <v>9445</v>
       </c>
       <c r="F78" t="n">
-        <v>40</v>
+        <v>55.6342</v>
       </c>
       <c r="G78" t="n">
-        <v>9496.666666666666</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="H78" t="n">
-        <v>9499.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,36 +3716,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="C79" t="n">
-        <v>9520</v>
+        <v>9535</v>
       </c>
       <c r="D79" t="n">
-        <v>9520</v>
+        <v>9535</v>
       </c>
       <c r="E79" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="F79" t="n">
-        <v>6.52</v>
+        <v>94.41459999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>9504.666666666666</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>9498.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,36 +3759,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9520</v>
+        <v>9470</v>
       </c>
       <c r="C80" t="n">
-        <v>9545</v>
+        <v>9470</v>
       </c>
       <c r="D80" t="n">
-        <v>9545</v>
+        <v>9470</v>
       </c>
       <c r="E80" t="n">
-        <v>9520</v>
+        <v>9470</v>
       </c>
       <c r="F80" t="n">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>9509</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="H80" t="n">
-        <v>9498.5</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>9535</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,36 +3802,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="C81" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="D81" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="E81" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="F81" t="n">
-        <v>6.41</v>
+        <v>682</v>
       </c>
       <c r="G81" t="n">
-        <v>9512</v>
+        <v>-29.23076923076923</v>
       </c>
       <c r="H81" t="n">
-        <v>9498.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,36 +3845,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9545</v>
+        <v>9490</v>
       </c>
       <c r="C82" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D82" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E82" t="n">
-        <v>9545</v>
+        <v>9490</v>
       </c>
       <c r="F82" t="n">
-        <v>6.34</v>
+        <v>187</v>
       </c>
       <c r="G82" t="n">
-        <v>9514.333333333334</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="H82" t="n">
-        <v>9498.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+        <v>9435</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,36 +3888,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C83" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="D83" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E83" t="n">
-        <v>9545</v>
+        <v>9435</v>
       </c>
       <c r="F83" t="n">
-        <v>13.97</v>
+        <v>15.8651</v>
       </c>
       <c r="G83" t="n">
-        <v>9516.666666666666</v>
+        <v>-12.08791208791209</v>
       </c>
       <c r="H83" t="n">
-        <v>9498.5</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,36 +3931,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9540</v>
+        <v>9425</v>
       </c>
       <c r="C84" t="n">
-        <v>9540</v>
+        <v>9425</v>
       </c>
       <c r="D84" t="n">
-        <v>9540</v>
+        <v>9425</v>
       </c>
       <c r="E84" t="n">
-        <v>9540</v>
+        <v>9425</v>
       </c>
       <c r="F84" t="n">
-        <v>13.24</v>
+        <v>22.3678</v>
       </c>
       <c r="G84" t="n">
-        <v>9517.666666666666</v>
+        <v>-27.71084337349398</v>
       </c>
       <c r="H84" t="n">
-        <v>9499</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>9435</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,36 +3974,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="C85" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="D85" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="E85" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="F85" t="n">
-        <v>6.27</v>
+        <v>4.8893</v>
       </c>
       <c r="G85" t="n">
-        <v>9518.666666666666</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="H85" t="n">
-        <v>9498.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>9425</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,37 +4017,42 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="C86" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="D86" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="E86" t="n">
-        <v>9540</v>
+        <v>9420</v>
       </c>
       <c r="F86" t="n">
-        <v>6.64</v>
+        <v>220.1467</v>
       </c>
       <c r="G86" t="n">
-        <v>9521.333333333334</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="H86" t="n">
-        <v>9499.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
-        <v>1</v>
+        <v>9420</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9415</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9955310674455656</v>
       </c>
     </row>
     <row r="87">
@@ -3688,36 +4060,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9545</v>
+        <v>9480</v>
       </c>
       <c r="C87" t="n">
-        <v>9545</v>
+        <v>9480</v>
       </c>
       <c r="D87" t="n">
-        <v>9545</v>
+        <v>9480</v>
       </c>
       <c r="E87" t="n">
-        <v>9545</v>
+        <v>9480</v>
       </c>
       <c r="F87" t="n">
-        <v>3.31</v>
+        <v>4.8893</v>
       </c>
       <c r="G87" t="n">
-        <v>9524.333333333334</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="H87" t="n">
-        <v>9499.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>9420</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9420</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,36 +4099,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9545</v>
+        <v>9415</v>
       </c>
       <c r="C88" t="n">
-        <v>9545</v>
+        <v>9415</v>
       </c>
       <c r="D88" t="n">
-        <v>9545</v>
+        <v>9415</v>
       </c>
       <c r="E88" t="n">
-        <v>9545</v>
+        <v>9415</v>
       </c>
       <c r="F88" t="n">
-        <v>70.02679999999999</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>9528</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>9499.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>9480</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,36 +4142,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9545</v>
+        <v>9430</v>
       </c>
       <c r="C89" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="D89" t="n">
-        <v>9550</v>
+        <v>9430</v>
       </c>
       <c r="E89" t="n">
-        <v>9545</v>
+        <v>9430</v>
       </c>
       <c r="F89" t="n">
-        <v>62</v>
+        <v>4.2019</v>
       </c>
       <c r="G89" t="n">
-        <v>9532</v>
+        <v>-10</v>
       </c>
       <c r="H89" t="n">
-        <v>9499.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>9415</v>
+      </c>
+      <c r="K89" t="n">
+        <v>9420</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,36 +4185,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="C90" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="D90" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="E90" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="F90" t="n">
-        <v>30</v>
+        <v>16.7987</v>
       </c>
       <c r="G90" t="n">
-        <v>9535.333333333334</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="H90" t="n">
-        <v>9500.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>9430</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9430</v>
+      </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,36 +4224,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="C91" t="n">
-        <v>9550</v>
+        <v>9415</v>
       </c>
       <c r="D91" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="E91" t="n">
-        <v>9550</v>
+        <v>9415</v>
       </c>
       <c r="F91" t="n">
-        <v>103.5</v>
+        <v>0.3231</v>
       </c>
       <c r="G91" t="n">
-        <v>9538.666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="H91" t="n">
-        <v>9500.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>9425</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,36 +4267,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9550</v>
+        <v>9410</v>
       </c>
       <c r="C92" t="n">
-        <v>9550</v>
+        <v>9465</v>
       </c>
       <c r="D92" t="n">
-        <v>9550</v>
+        <v>9465</v>
       </c>
       <c r="E92" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="F92" t="n">
-        <v>34.5</v>
+        <v>214.4752</v>
       </c>
       <c r="G92" t="n">
-        <v>9542</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="H92" t="n">
-        <v>9501.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>9415</v>
+      </c>
+      <c r="K92" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,36 +4310,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="C93" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="D93" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="E93" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>27.8</v>
       </c>
       <c r="G93" t="n">
-        <v>9544</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="H93" t="n">
-        <v>9502.25</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>9465</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,36 +4353,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="C94" t="n">
-        <v>9550</v>
+        <v>9480</v>
       </c>
       <c r="D94" t="n">
-        <v>9550</v>
+        <v>9480</v>
       </c>
       <c r="E94" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="F94" t="n">
-        <v>62</v>
+        <v>611.9446</v>
       </c>
       <c r="G94" t="n">
-        <v>9546</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="H94" t="n">
-        <v>9502.25</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>9400</v>
+      </c>
+      <c r="K94" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,36 +4396,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9550</v>
+        <v>9480</v>
       </c>
       <c r="C95" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D95" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="E95" t="n">
-        <v>9550</v>
+        <v>9480</v>
       </c>
       <c r="F95" t="n">
-        <v>42</v>
+        <v>1.3258</v>
       </c>
       <c r="G95" t="n">
-        <v>9546.333333333334</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="H95" t="n">
-        <v>9502.5</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>9480</v>
+      </c>
+      <c r="K95" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,36 +4439,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C96" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D96" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E96" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>6.49</v>
       </c>
       <c r="G96" t="n">
-        <v>9546.666666666666</v>
+        <v>9.375</v>
       </c>
       <c r="H96" t="n">
-        <v>9502.333333333334</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,36 +4482,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C97" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D97" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E97" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="F97" t="n">
-        <v>53</v>
+        <v>6.22</v>
       </c>
       <c r="G97" t="n">
-        <v>9547</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="H97" t="n">
-        <v>9504.416666666666</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K97" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,36 +4525,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="C98" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D98" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E98" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="F98" t="n">
-        <v>32</v>
+        <v>6.39</v>
       </c>
       <c r="G98" t="n">
-        <v>9547.333333333334</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="H98" t="n">
-        <v>9505.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>9510</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,36 +4568,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="C99" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="D99" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="E99" t="n">
-        <v>9550</v>
+        <v>9525</v>
       </c>
       <c r="F99" t="n">
-        <v>33</v>
+        <v>6.2</v>
       </c>
       <c r="G99" t="n">
-        <v>9548</v>
+        <v>40</v>
       </c>
       <c r="H99" t="n">
-        <v>9506.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4182,36 +4611,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C100" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D100" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="E100" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F100" t="n">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>9548.666666666666</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="H100" t="n">
-        <v>9506.666666666666</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,36 +4654,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="C101" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D101" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="E101" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="F101" t="n">
-        <v>67.92400000000001</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>9549.333333333334</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="H101" t="n">
-        <v>9506.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,37 +4697,42 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="C102" t="n">
-        <v>9585</v>
+        <v>9490</v>
       </c>
       <c r="D102" t="n">
-        <v>9585</v>
+        <v>9490</v>
       </c>
       <c r="E102" t="n">
-        <v>9550</v>
+        <v>9490</v>
       </c>
       <c r="F102" t="n">
-        <v>34.5</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>9552</v>
+        <v>56.25</v>
       </c>
       <c r="H102" t="n">
-        <v>9509.75</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>1</v>
+        <v>9500</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9430</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1.001362672322375</v>
       </c>
     </row>
     <row r="103">
@@ -4296,36 +4740,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="C103" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="D103" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="E103" t="n">
-        <v>9580</v>
+        <v>9490</v>
       </c>
       <c r="F103" t="n">
-        <v>3.6073</v>
+        <v>42</v>
       </c>
       <c r="G103" t="n">
-        <v>9554.333333333334</v>
+        <v>12.5</v>
       </c>
       <c r="H103" t="n">
-        <v>9510.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,36 +4783,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9590</v>
+        <v>9490</v>
       </c>
       <c r="C104" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D104" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E104" t="n">
-        <v>9590</v>
+        <v>9490</v>
       </c>
       <c r="F104" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104" t="n">
-        <v>9557</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>9511.25</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,36 +4826,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="C105" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D105" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E105" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="F105" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="G105" t="n">
-        <v>9559.666666666666</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H105" t="n">
-        <v>9512.916666666666</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,36 +4869,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="C106" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="D106" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="E106" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>9560.333333333334</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>9513.25</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,36 +4912,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="C107" t="n">
-        <v>9560</v>
+        <v>9520</v>
       </c>
       <c r="D107" t="n">
-        <v>9560</v>
+        <v>9520</v>
       </c>
       <c r="E107" t="n">
-        <v>9560</v>
+        <v>9500</v>
       </c>
       <c r="F107" t="n">
-        <v>11.7954</v>
+        <v>40</v>
       </c>
       <c r="G107" t="n">
-        <v>9561</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H107" t="n">
-        <v>9514.25</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K107" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,36 +4955,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9585</v>
+        <v>9520</v>
       </c>
       <c r="C108" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="D108" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="E108" t="n">
-        <v>9585</v>
+        <v>9520</v>
       </c>
       <c r="F108" t="n">
-        <v>95</v>
+        <v>6.52</v>
       </c>
       <c r="G108" t="n">
-        <v>9563.666666666666</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H108" t="n">
-        <v>9515.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K108" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,36 +4998,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="C109" t="n">
-        <v>9590</v>
+        <v>9545</v>
       </c>
       <c r="D109" t="n">
-        <v>9590</v>
+        <v>9545</v>
       </c>
       <c r="E109" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="F109" t="n">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="G109" t="n">
-        <v>9566.333333333334</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="H109" t="n">
-        <v>9516.083333333334</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+        <v>9520</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,36 +5041,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9590</v>
+        <v>9545</v>
       </c>
       <c r="C110" t="n">
-        <v>9600</v>
+        <v>9545</v>
       </c>
       <c r="D110" t="n">
-        <v>9600</v>
+        <v>9545</v>
       </c>
       <c r="E110" t="n">
-        <v>9590</v>
+        <v>9545</v>
       </c>
       <c r="F110" t="n">
-        <v>34</v>
+        <v>6.41</v>
       </c>
       <c r="G110" t="n">
-        <v>9569.666666666666</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="H110" t="n">
-        <v>9517.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4600,36 +5084,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="C111" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="D111" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="E111" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="F111" t="n">
-        <v>34.6288</v>
+        <v>6.34</v>
       </c>
       <c r="G111" t="n">
-        <v>9570</v>
+        <v>100</v>
       </c>
       <c r="H111" t="n">
-        <v>9518.583333333334</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,36 +5127,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9595</v>
+        <v>9545</v>
       </c>
       <c r="C112" t="n">
-        <v>9595</v>
+        <v>9545</v>
       </c>
       <c r="D112" t="n">
-        <v>9595</v>
+        <v>9545</v>
       </c>
       <c r="E112" t="n">
-        <v>9595</v>
+        <v>9545</v>
       </c>
       <c r="F112" t="n">
-        <v>6</v>
+        <v>13.97</v>
       </c>
       <c r="G112" t="n">
-        <v>9573</v>
+        <v>100</v>
       </c>
       <c r="H112" t="n">
-        <v>9521.25</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K112" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,36 +5170,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="C113" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="D113" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="E113" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>13.24</v>
       </c>
       <c r="G113" t="n">
-        <v>9576</v>
+        <v>80</v>
       </c>
       <c r="H113" t="n">
-        <v>9522.166666666666</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K113" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,36 +5213,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="C114" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="D114" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="E114" t="n">
-        <v>9595</v>
+        <v>9540</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>6.27</v>
       </c>
       <c r="G114" t="n">
-        <v>9579</v>
+        <v>80</v>
       </c>
       <c r="H114" t="n">
-        <v>9524.833333333334</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K114" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,36 +5256,1260 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G115" t="n">
+        <v>80</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K115" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0.9992105263157894</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G116" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K116" t="n">
+        <v>9540</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F117" t="n">
+        <v>70.02679999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K117" t="n">
+        <v>9540</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F118" t="n">
+        <v>62</v>
+      </c>
+      <c r="G118" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>9545</v>
+      </c>
+      <c r="K118" t="n">
+        <v>9540</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30</v>
+      </c>
+      <c r="G119" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K119" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F120" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F121" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K121" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6</v>
+      </c>
+      <c r="G122" t="n">
+        <v>100</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F123" t="n">
+        <v>62</v>
+      </c>
+      <c r="G123" t="n">
+        <v>100</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K123" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F124" t="n">
+        <v>42</v>
+      </c>
+      <c r="G124" t="n">
+        <v>100</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K124" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3</v>
+      </c>
+      <c r="G125" t="n">
+        <v>100</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F126" t="n">
+        <v>53</v>
+      </c>
+      <c r="G126" t="n">
+        <v>100</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K126" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F127" t="n">
+        <v>32</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K127" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F128" t="n">
+        <v>33</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K128" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F129" t="n">
+        <v>131</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K129" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F130" t="n">
+        <v>67.92400000000001</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K130" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9585</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F131" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>100</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K131" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.6073</v>
+      </c>
+      <c r="G132" t="n">
+        <v>75</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9585</v>
+      </c>
+      <c r="K132" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F133" t="n">
+        <v>32</v>
+      </c>
+      <c r="G133" t="n">
+        <v>80</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>9580</v>
+      </c>
+      <c r="K133" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F134" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>80</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K134" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K135" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11.7954</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9560</v>
+      </c>
+      <c r="K136" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F137" t="n">
+        <v>95</v>
+      </c>
+      <c r="G137" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>9560</v>
+      </c>
+      <c r="K137" t="n">
+        <v>9550</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>0.9991884816753928</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32</v>
+      </c>
+      <c r="G138" t="n">
+        <v>36.36363636363637</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K138" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F139" t="n">
+        <v>34</v>
+      </c>
+      <c r="G139" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K139" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34.6288</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-23.07692307692308</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>9600</v>
+      </c>
+      <c r="K140" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
         <v>9595</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C141" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9555</v>
+      </c>
+      <c r="K141" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K142" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K143" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C144" t="n">
         <v>9600</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D144" t="n">
         <v>9600</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E144" t="n">
         <v>9595</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F144" t="n">
         <v>6</v>
       </c>
-      <c r="G115" t="n">
-        <v>9582.333333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>9527.75</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="G144" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K144" t="n">
+        <v>9590</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9550</v>
+        <v>9395</v>
       </c>
       <c r="C2" t="n">
-        <v>9520</v>
+        <v>9400</v>
       </c>
       <c r="D2" t="n">
-        <v>9550</v>
+        <v>9400</v>
       </c>
       <c r="E2" t="n">
-        <v>9520</v>
+        <v>9395</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="G2" t="n">
-        <v>2157.277386119999</v>
+        <v>1131.36080821</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9540</v>
+        <v>9400</v>
       </c>
       <c r="C3" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="D3" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="E3" t="n">
-        <v>9540</v>
+        <v>9400</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>124.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2185.277386119999</v>
+        <v>1255.86080821</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>9400</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9540</v>
+        <v>9440</v>
       </c>
       <c r="C4" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="D4" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="E4" t="n">
-        <v>9540</v>
+        <v>9440</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>121.8024816</v>
       </c>
       <c r="G4" t="n">
-        <v>2211.277386119999</v>
+        <v>1377.66328981</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9435</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="C5" t="n">
-        <v>9550</v>
+        <v>9420</v>
       </c>
       <c r="D5" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="E5" t="n">
-        <v>9550</v>
+        <v>9420</v>
       </c>
       <c r="F5" t="n">
-        <v>8.880000000000001</v>
+        <v>121.498</v>
       </c>
       <c r="G5" t="n">
-        <v>2211.277386119999</v>
+        <v>1256.16528981</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9460</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="C6" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="D6" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="E6" t="n">
-        <v>9550</v>
+        <v>9455</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>22.4393</v>
       </c>
       <c r="G6" t="n">
-        <v>2211.277386119999</v>
+        <v>1278.60458981</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>9420</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="C7" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="D7" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="E7" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>4.1984</v>
       </c>
       <c r="G7" t="n">
-        <v>2211.277386119999</v>
+        <v>1282.80298981</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>9455</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="C8" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="D8" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E8" t="n">
-        <v>9500</v>
+        <v>9460</v>
       </c>
       <c r="F8" t="n">
-        <v>22.7494</v>
+        <v>207.5</v>
       </c>
       <c r="G8" t="n">
-        <v>2211.277386119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>9460</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="C9" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="D9" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E9" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>2211.277386119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +751,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="C10" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="D10" t="n">
-        <v>9580</v>
+        <v>9495</v>
       </c>
       <c r="E10" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="F10" t="n">
-        <v>199.4047</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>2011.872686119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +791,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +806,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C11" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="D11" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="E11" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F11" t="n">
-        <v>50.2011</v>
+        <v>77.23779999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1961.671586119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +831,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +846,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="C12" t="n">
-        <v>9560</v>
+        <v>9495</v>
       </c>
       <c r="D12" t="n">
-        <v>9560</v>
+        <v>9495</v>
       </c>
       <c r="E12" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="F12" t="n">
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1993.171586119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +871,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +886,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C13" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="D13" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="E13" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>1989.171586119999</v>
+        <v>1490.30298981</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +911,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +926,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9510</v>
+        <v>9435</v>
       </c>
       <c r="C14" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="D14" t="n">
-        <v>9510</v>
+        <v>9435</v>
       </c>
       <c r="E14" t="n">
-        <v>9500</v>
+        <v>9430</v>
       </c>
       <c r="F14" t="n">
-        <v>245.9735</v>
+        <v>106.0445</v>
       </c>
       <c r="G14" t="n">
-        <v>1743.198086119999</v>
+        <v>1384.25848981</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +951,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +966,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9545</v>
+        <v>9425</v>
       </c>
       <c r="C15" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="D15" t="n">
-        <v>9550</v>
+        <v>9425</v>
       </c>
       <c r="E15" t="n">
-        <v>9545</v>
+        <v>9425</v>
       </c>
       <c r="F15" t="n">
-        <v>6.29</v>
+        <v>110.9751</v>
       </c>
       <c r="G15" t="n">
-        <v>1749.488086119999</v>
+        <v>1273.28338981</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>9430</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1008,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="C16" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="D16" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="E16" t="n">
-        <v>9550</v>
+        <v>9460</v>
       </c>
       <c r="F16" t="n">
-        <v>9.6342</v>
+        <v>9.6905</v>
       </c>
       <c r="G16" t="n">
-        <v>1749.488086119999</v>
+        <v>1282.97388981</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>9425</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1050,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="C17" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="D17" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="E17" t="n">
-        <v>9505</v>
+        <v>9470</v>
       </c>
       <c r="F17" t="n">
-        <v>23.4681</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>1726.019986119999</v>
+        <v>1314.97388981</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>9460</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1092,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9505</v>
+        <v>9430</v>
       </c>
       <c r="C18" t="n">
-        <v>9550</v>
+        <v>9475</v>
       </c>
       <c r="D18" t="n">
-        <v>9550</v>
+        <v>9475</v>
       </c>
       <c r="E18" t="n">
-        <v>9505</v>
+        <v>9430</v>
       </c>
       <c r="F18" t="n">
-        <v>75.1276</v>
+        <v>39.9163</v>
       </c>
       <c r="G18" t="n">
-        <v>1801.147586119999</v>
+        <v>1354.89018981</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1117,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1132,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9505</v>
+        <v>9475</v>
       </c>
       <c r="C19" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="D19" t="n">
-        <v>9505</v>
+        <v>9475</v>
       </c>
       <c r="E19" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="F19" t="n">
-        <v>31.0912</v>
+        <v>1.6435</v>
       </c>
       <c r="G19" t="n">
-        <v>1770.056386119999</v>
+        <v>1354.89018981</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9475</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,36 +1174,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="C20" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D20" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E20" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9088000000000001</v>
+        <v>236.5868</v>
       </c>
       <c r="G20" t="n">
-        <v>1770.056386119999</v>
+        <v>1591.47698981</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9500</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1126,38 +1214,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C21" t="n">
         <v>9495</v>
       </c>
-      <c r="C21" t="n">
-        <v>9550</v>
-      </c>
       <c r="D21" t="n">
-        <v>9565</v>
+        <v>9495</v>
       </c>
       <c r="E21" t="n">
-        <v>9480</v>
+        <v>9490</v>
       </c>
       <c r="F21" t="n">
-        <v>992.0471</v>
+        <v>113.8044</v>
       </c>
       <c r="G21" t="n">
-        <v>2762.103486119999</v>
+        <v>1591.47698981</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1170,22 +1254,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="C22" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="D22" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="E22" t="n">
-        <v>9535</v>
+        <v>9495</v>
       </c>
       <c r="F22" t="n">
-        <v>32.2283</v>
+        <v>32.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2729.875186119999</v>
+        <v>1591.47698981</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,9 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,22 +1294,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9480</v>
+        <v>9470</v>
       </c>
       <c r="C23" t="n">
-        <v>9560</v>
+        <v>9470</v>
       </c>
       <c r="D23" t="n">
-        <v>9560</v>
+        <v>9470</v>
       </c>
       <c r="E23" t="n">
-        <v>9480</v>
+        <v>9470</v>
       </c>
       <c r="F23" t="n">
-        <v>871.4606</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>3601.335786119999</v>
+        <v>1589.47698981</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1236,9 +1318,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1254,22 +1334,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="C24" t="n">
-        <v>9425</v>
+        <v>9470</v>
       </c>
       <c r="D24" t="n">
-        <v>9475</v>
+        <v>9470</v>
       </c>
       <c r="E24" t="n">
-        <v>9425</v>
+        <v>9470</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6687</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>3486.667086119999</v>
+        <v>1589.47698981</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1278,9 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1296,22 +1374,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9460</v>
+        <v>9470</v>
       </c>
       <c r="C25" t="n">
-        <v>9460</v>
+        <v>9470</v>
       </c>
       <c r="D25" t="n">
-        <v>9460</v>
+        <v>9470</v>
       </c>
       <c r="E25" t="n">
-        <v>9460</v>
+        <v>9470</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G25" t="n">
-        <v>3506.667086119999</v>
+        <v>1589.47698981</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1320,9 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,35 +1414,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9530</v>
+        <v>9440</v>
       </c>
       <c r="C26" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="D26" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="E26" t="n">
-        <v>9530</v>
+        <v>9430</v>
       </c>
       <c r="F26" t="n">
-        <v>11.1779</v>
+        <v>287.7959</v>
       </c>
       <c r="G26" t="n">
-        <v>3517.844986119999</v>
+        <v>1877.27288981</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,22 +1454,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9535</v>
+        <v>9445</v>
       </c>
       <c r="C27" t="n">
-        <v>9520</v>
+        <v>9445</v>
       </c>
       <c r="D27" t="n">
-        <v>9535</v>
+        <v>9445</v>
       </c>
       <c r="E27" t="n">
-        <v>9520</v>
+        <v>9445</v>
       </c>
       <c r="F27" t="n">
-        <v>13.0967</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>3504.748286119999</v>
+        <v>1872.27288981</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1406,9 +1478,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1424,22 +1494,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="C28" t="n">
-        <v>9535</v>
+        <v>9490</v>
       </c>
       <c r="D28" t="n">
-        <v>9535</v>
+        <v>9490</v>
       </c>
       <c r="E28" t="n">
-        <v>9530</v>
+        <v>9485</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>47.3355</v>
       </c>
       <c r="G28" t="n">
-        <v>3542.748286119999</v>
+        <v>1919.60838981</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1448,9 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9425</v>
+        <v>9495</v>
       </c>
       <c r="C29" t="n">
-        <v>9415</v>
+        <v>9495</v>
       </c>
       <c r="D29" t="n">
-        <v>9425</v>
+        <v>9495</v>
       </c>
       <c r="E29" t="n">
-        <v>9415</v>
+        <v>9495</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>95.0943</v>
       </c>
       <c r="G29" t="n">
-        <v>3492.748286119999</v>
+        <v>2014.70268981</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1490,9 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,22 +1574,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C30" t="n">
-        <v>9530</v>
+        <v>9495</v>
       </c>
       <c r="D30" t="n">
-        <v>9530</v>
+        <v>9500</v>
       </c>
       <c r="E30" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F30" t="n">
-        <v>12.86</v>
+        <v>221.9605</v>
       </c>
       <c r="G30" t="n">
-        <v>3505.608286119999</v>
+        <v>2014.70268981</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1532,9 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1550,22 +1614,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9525</v>
+        <v>9500</v>
       </c>
       <c r="C31" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="D31" t="n">
-        <v>9550</v>
+        <v>9520</v>
       </c>
       <c r="E31" t="n">
-        <v>9430</v>
+        <v>9500</v>
       </c>
       <c r="F31" t="n">
-        <v>536.3916</v>
+        <v>38.5</v>
       </c>
       <c r="G31" t="n">
-        <v>4041.999886119999</v>
+        <v>2053.20268981</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1574,9 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1592,22 +1654,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="C32" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="D32" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="E32" t="n">
-        <v>9490</v>
+        <v>9455</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G32" t="n">
-        <v>4035.999886119999</v>
+        <v>2004.20268981</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1616,9 +1678,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1634,22 +1694,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9490</v>
+        <v>9445</v>
       </c>
       <c r="C33" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D33" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="E33" t="n">
-        <v>9490</v>
+        <v>9440</v>
       </c>
       <c r="F33" t="n">
-        <v>46</v>
+        <v>138.8781</v>
       </c>
       <c r="G33" t="n">
-        <v>4081.999886119999</v>
+        <v>2143.08078981</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1658,9 +1718,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1676,22 +1734,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9450</v>
+        <v>9505</v>
       </c>
       <c r="C34" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="D34" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="E34" t="n">
-        <v>9450</v>
+        <v>9505</v>
       </c>
       <c r="F34" t="n">
-        <v>56</v>
+        <v>20.9</v>
       </c>
       <c r="G34" t="n">
-        <v>4025.999886119999</v>
+        <v>2122.18078981</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1700,9 +1758,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,22 +1774,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9450</v>
+        <v>9510</v>
       </c>
       <c r="C35" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="D35" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="E35" t="n">
-        <v>9450</v>
+        <v>9510</v>
       </c>
       <c r="F35" t="n">
-        <v>72.59439999999999</v>
+        <v>6.33</v>
       </c>
       <c r="G35" t="n">
-        <v>4098.594286119999</v>
+        <v>2122.18078981</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1742,9 +1798,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,22 +1814,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="C36" t="n">
-        <v>9530</v>
+        <v>9475</v>
       </c>
       <c r="D36" t="n">
-        <v>9530</v>
+        <v>9475</v>
       </c>
       <c r="E36" t="n">
-        <v>9445</v>
+        <v>9475</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6342</v>
+        <v>1.07150369</v>
       </c>
       <c r="G36" t="n">
-        <v>4042.960086119999</v>
+        <v>2121.10928612</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1784,9 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1802,22 +1854,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="C37" t="n">
-        <v>9535</v>
+        <v>9520</v>
       </c>
       <c r="D37" t="n">
-        <v>9535</v>
+        <v>9520</v>
       </c>
       <c r="E37" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="F37" t="n">
-        <v>94.41459999999999</v>
+        <v>130.3003</v>
       </c>
       <c r="G37" t="n">
-        <v>4137.374686119999</v>
+        <v>2251.409586119999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1826,9 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1844,22 +1894,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="C38" t="n">
-        <v>9470</v>
+        <v>9515</v>
       </c>
       <c r="D38" t="n">
-        <v>9470</v>
+        <v>9515</v>
       </c>
       <c r="E38" t="n">
-        <v>9470</v>
+        <v>9460</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>86.8703</v>
       </c>
       <c r="G38" t="n">
-        <v>4131.374686119999</v>
+        <v>2164.539286119999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1868,9 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1886,22 +1934,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9435</v>
+        <v>9495</v>
       </c>
       <c r="C39" t="n">
-        <v>9435</v>
+        <v>9500</v>
       </c>
       <c r="D39" t="n">
-        <v>9435</v>
+        <v>9500</v>
       </c>
       <c r="E39" t="n">
-        <v>9435</v>
+        <v>9495</v>
       </c>
       <c r="F39" t="n">
-        <v>682</v>
+        <v>34.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3449.374686119999</v>
+        <v>2130.039286119999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1910,9 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,35 +1974,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C40" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="D40" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="E40" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F40" t="n">
-        <v>187</v>
+        <v>66.5</v>
       </c>
       <c r="G40" t="n">
-        <v>3636.374686119999</v>
+        <v>2130.039286119999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>9435</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,22 +2014,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="C41" t="n">
-        <v>9435</v>
+        <v>9495</v>
       </c>
       <c r="D41" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="E41" t="n">
-        <v>9435</v>
+        <v>9495</v>
       </c>
       <c r="F41" t="n">
-        <v>15.8651</v>
+        <v>28</v>
       </c>
       <c r="G41" t="n">
-        <v>3620.509586119999</v>
+        <v>2102.039286119999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1996,9 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,22 +2054,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9425</v>
+        <v>9495</v>
       </c>
       <c r="C42" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="D42" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="E42" t="n">
-        <v>9425</v>
+        <v>9495</v>
       </c>
       <c r="F42" t="n">
-        <v>22.3678</v>
+        <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>3598.141786119999</v>
+        <v>2124.039286119999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2038,9 +2078,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,35 +2094,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="C43" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="D43" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="E43" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="F43" t="n">
-        <v>4.8893</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
-        <v>3593.252486119999</v>
+        <v>2110.039286119999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2100,35 +2134,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="C44" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="D44" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="E44" t="n">
-        <v>9420</v>
+        <v>9510</v>
       </c>
       <c r="F44" t="n">
-        <v>220.1467</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>3593.252486119999</v>
+        <v>2110.039286119999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K44" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,35 +2174,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="C45" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="D45" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="E45" t="n">
-        <v>9480</v>
+        <v>9510</v>
       </c>
       <c r="F45" t="n">
-        <v>4.8893</v>
+        <v>33</v>
       </c>
       <c r="G45" t="n">
-        <v>3598.141786119999</v>
+        <v>2110.039286119999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,35 +2214,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9415</v>
+        <v>9510</v>
       </c>
       <c r="C46" t="n">
-        <v>9415</v>
+        <v>9510</v>
       </c>
       <c r="D46" t="n">
-        <v>9415</v>
+        <v>9510</v>
       </c>
       <c r="E46" t="n">
-        <v>9415</v>
+        <v>9510</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>6.44</v>
       </c>
       <c r="G46" t="n">
-        <v>3593.141786119999</v>
+        <v>2110.039286119999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>9480</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,35 +2254,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="C47" t="n">
-        <v>9430</v>
+        <v>9520</v>
       </c>
       <c r="D47" t="n">
-        <v>9430</v>
+        <v>9520</v>
       </c>
       <c r="E47" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="F47" t="n">
-        <v>4.2019</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>3597.343686119999</v>
+        <v>2202.039286119999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>9415</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,22 +2294,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="C48" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="D48" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="E48" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="F48" t="n">
-        <v>16.7987</v>
+        <v>41.5</v>
       </c>
       <c r="G48" t="n">
-        <v>3580.544986119999</v>
+        <v>2243.539286119999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2300,9 +2318,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,35 +2334,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9455</v>
+        <v>9525</v>
       </c>
       <c r="C49" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="D49" t="n">
-        <v>9455</v>
+        <v>9525</v>
       </c>
       <c r="E49" t="n">
-        <v>9415</v>
+        <v>9485</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3231</v>
+        <v>34.9164</v>
       </c>
       <c r="G49" t="n">
-        <v>3580.221886119999</v>
+        <v>2208.622886119999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>9425</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2362,22 +2374,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9410</v>
+        <v>9525</v>
       </c>
       <c r="C50" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="D50" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="E50" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F50" t="n">
-        <v>214.4752</v>
+        <v>4.2939</v>
       </c>
       <c r="G50" t="n">
-        <v>3794.697086119999</v>
+        <v>2212.916786119999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2386,9 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,35 +2414,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="C51" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="D51" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="E51" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F51" t="n">
-        <v>27.8</v>
+        <v>6.38</v>
       </c>
       <c r="G51" t="n">
-        <v>3766.897086119999</v>
+        <v>2212.916786119999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,35 +2454,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="C52" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="D52" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="E52" t="n">
-        <v>9400</v>
+        <v>9525</v>
       </c>
       <c r="F52" t="n">
-        <v>611.9446</v>
+        <v>34</v>
       </c>
       <c r="G52" t="n">
-        <v>4378.841686119998</v>
+        <v>2246.916786119999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,35 +2494,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="C53" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="D53" t="n">
-        <v>9500</v>
+        <v>9530</v>
       </c>
       <c r="E53" t="n">
-        <v>9480</v>
+        <v>9530</v>
       </c>
       <c r="F53" t="n">
-        <v>1.3258</v>
+        <v>33</v>
       </c>
       <c r="G53" t="n">
-        <v>4380.167486119998</v>
+        <v>2246.916786119999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>9480</v>
-      </c>
-      <c r="K53" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,35 +2534,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="C54" t="n">
-        <v>9510</v>
+        <v>9545</v>
       </c>
       <c r="D54" t="n">
-        <v>9510</v>
+        <v>9545</v>
       </c>
       <c r="E54" t="n">
-        <v>9510</v>
+        <v>9530</v>
       </c>
       <c r="F54" t="n">
-        <v>6.49</v>
+        <v>29.5</v>
       </c>
       <c r="G54" t="n">
-        <v>4386.657486119998</v>
+        <v>2276.416786119999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9500</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,22 +2574,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="C55" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="D55" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="E55" t="n">
-        <v>9510</v>
+        <v>9495</v>
       </c>
       <c r="F55" t="n">
-        <v>6.22</v>
+        <v>0.1076</v>
       </c>
       <c r="G55" t="n">
-        <v>4386.657486119998</v>
+        <v>2276.30918612</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2604,9 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,22 +2614,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="C56" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="D56" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="E56" t="n">
-        <v>9525</v>
+        <v>9550</v>
       </c>
       <c r="F56" t="n">
-        <v>6.39</v>
+        <v>6.83</v>
       </c>
       <c r="G56" t="n">
-        <v>4393.047486119998</v>
+        <v>2283.13918612</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2646,9 +2638,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,22 +2654,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="C57" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="D57" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="E57" t="n">
-        <v>9525</v>
+        <v>9495</v>
       </c>
       <c r="F57" t="n">
-        <v>6.2</v>
+        <v>21.9308</v>
       </c>
       <c r="G57" t="n">
-        <v>4393.047486119998</v>
+        <v>2261.208386119999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2688,9 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,22 +2694,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="C58" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D58" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E58" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>4391.047486119998</v>
+        <v>2261.208386119999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2730,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,22 +2734,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="C59" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="D59" t="n">
-        <v>9500</v>
+        <v>9495</v>
       </c>
       <c r="E59" t="n">
-        <v>9490</v>
+        <v>9495</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>9.3888</v>
       </c>
       <c r="G59" t="n">
-        <v>4391.047486119998</v>
+        <v>2261.208386119999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2772,9 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,22 +2774,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C60" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="D60" t="n">
-        <v>9490</v>
+        <v>9545</v>
       </c>
       <c r="E60" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>64.6554</v>
       </c>
       <c r="G60" t="n">
-        <v>4381.047486119998</v>
+        <v>2325.86378612</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2814,9 +2798,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,22 +2814,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="C61" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="D61" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="E61" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="F61" t="n">
-        <v>42</v>
+        <v>3.4575</v>
       </c>
       <c r="G61" t="n">
-        <v>4381.047486119998</v>
+        <v>2322.40628612</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,9 +2838,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,22 +2854,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="C62" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="D62" t="n">
-        <v>9500</v>
+        <v>9485</v>
       </c>
       <c r="E62" t="n">
-        <v>9490</v>
+        <v>9485</v>
       </c>
       <c r="F62" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>4415.047486119998</v>
+        <v>2322.40628612</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2898,9 +2878,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,22 +2894,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="C63" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="D63" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="E63" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>17.6289</v>
       </c>
       <c r="G63" t="n">
-        <v>4415.047486119998</v>
+        <v>2304.777386119999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2940,9 +2918,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,22 +2934,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C64" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="D64" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="E64" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>68.5</v>
       </c>
       <c r="G64" t="n">
-        <v>4415.047486119998</v>
+        <v>2373.277386119999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2982,9 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,22 +2974,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="C65" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D65" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="E65" t="n">
-        <v>9500</v>
+        <v>9535</v>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G65" t="n">
-        <v>4455.047486119998</v>
+        <v>2409.277386119999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3024,9 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,22 +3014,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="C66" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="D66" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="E66" t="n">
-        <v>9520</v>
+        <v>9545</v>
       </c>
       <c r="F66" t="n">
-        <v>6.52</v>
+        <v>30.5</v>
       </c>
       <c r="G66" t="n">
-        <v>4455.047486119998</v>
+        <v>2409.277386119999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3066,9 +3038,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,22 +3054,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9520</v>
+        <v>9485</v>
       </c>
       <c r="C67" t="n">
-        <v>9545</v>
+        <v>9450</v>
       </c>
       <c r="D67" t="n">
-        <v>9545</v>
+        <v>9485</v>
       </c>
       <c r="E67" t="n">
-        <v>9520</v>
+        <v>9450</v>
       </c>
       <c r="F67" t="n">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="G67" t="n">
-        <v>4641.047486119998</v>
+        <v>2040.277386119999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3108,9 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,22 +3094,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C68" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="D68" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E68" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="F68" t="n">
-        <v>6.41</v>
+        <v>12</v>
       </c>
       <c r="G68" t="n">
-        <v>4641.047486119998</v>
+        <v>2052.277386119999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3150,9 +3118,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3134,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C69" t="n">
         <v>9545</v>
@@ -3177,13 +3143,13 @@
         <v>9545</v>
       </c>
       <c r="E69" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="F69" t="n">
-        <v>6.34</v>
+        <v>37.5</v>
       </c>
       <c r="G69" t="n">
-        <v>4641.047486119998</v>
+        <v>2089.777386119999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3192,9 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,19 +3177,19 @@
         <v>9545</v>
       </c>
       <c r="C70" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="D70" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="E70" t="n">
         <v>9545</v>
       </c>
       <c r="F70" t="n">
-        <v>13.97</v>
+        <v>71.5</v>
       </c>
       <c r="G70" t="n">
-        <v>4641.047486119998</v>
+        <v>2161.277386119999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3234,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,19 +3217,19 @@
         <v>9540</v>
       </c>
       <c r="C71" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="D71" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E71" t="n">
         <v>9540</v>
       </c>
       <c r="F71" t="n">
-        <v>13.24</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>4627.807486119998</v>
+        <v>2161.277386119999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3276,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,19 +3257,19 @@
         <v>9540</v>
       </c>
       <c r="C72" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D72" t="n">
         <v>9540</v>
       </c>
       <c r="E72" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F72" t="n">
-        <v>6.27</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>4627.807486119998</v>
+        <v>2157.277386119999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3318,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,22 +3294,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C73" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D73" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E73" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F73" t="n">
-        <v>6.64</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>4627.807486119998</v>
+        <v>2157.277386119999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3360,9 +3318,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3378,22 +3334,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C74" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D74" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E74" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F74" t="n">
-        <v>3.31</v>
+        <v>28</v>
       </c>
       <c r="G74" t="n">
-        <v>4631.117486119999</v>
+        <v>2185.277386119999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3402,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,22 +3374,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C75" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="D75" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="E75" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F75" t="n">
-        <v>70.02679999999999</v>
+        <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>4631.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3444,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,7 +3414,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="C76" t="n">
         <v>9550</v>
@@ -3471,13 +3423,13 @@
         <v>9550</v>
       </c>
       <c r="E76" t="n">
-        <v>9545</v>
+        <v>9550</v>
       </c>
       <c r="F76" t="n">
-        <v>62</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>4693.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3486,9 +3438,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,10 +3466,10 @@
         <v>9550</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>4693.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3528,9 +3478,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,10 +3506,10 @@
         <v>9550</v>
       </c>
       <c r="F78" t="n">
-        <v>103.5</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>4693.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3570,9 +3518,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C79" t="n">
         <v>9550</v>
@@ -3597,13 +3543,13 @@
         <v>9550</v>
       </c>
       <c r="E79" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F79" t="n">
-        <v>34.5</v>
+        <v>22.7494</v>
       </c>
       <c r="G79" t="n">
-        <v>4693.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3612,9 +3558,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,10 +3586,10 @@
         <v>9550</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
-        <v>4693.117486119999</v>
+        <v>2211.277386119999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3654,9 +3598,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,19 +3617,19 @@
         <v>9550</v>
       </c>
       <c r="C81" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="D81" t="n">
-        <v>9550</v>
+        <v>9580</v>
       </c>
       <c r="E81" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="F81" t="n">
-        <v>62</v>
+        <v>199.4047</v>
       </c>
       <c r="G81" t="n">
-        <v>4693.117486119999</v>
+        <v>2011.872686119999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3696,9 +3638,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,22 +3654,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C82" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D82" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E82" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F82" t="n">
-        <v>42</v>
+        <v>50.2011</v>
       </c>
       <c r="G82" t="n">
-        <v>4693.117486119999</v>
+        <v>1961.671586119999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3738,9 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,22 +3694,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="C83" t="n">
-        <v>9550</v>
+        <v>9560</v>
       </c>
       <c r="D83" t="n">
-        <v>9550</v>
+        <v>9560</v>
       </c>
       <c r="E83" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>31.5</v>
       </c>
       <c r="G83" t="n">
-        <v>4693.117486119999</v>
+        <v>1993.171586119999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3780,9 +3718,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,22 +3734,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="C84" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="D84" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E84" t="n">
-        <v>9540</v>
+        <v>9510</v>
       </c>
       <c r="F84" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>4693.117486119999</v>
+        <v>1989.171586119999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3822,9 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3840,22 +3774,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C85" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D85" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E85" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F85" t="n">
-        <v>32</v>
+        <v>245.9735</v>
       </c>
       <c r="G85" t="n">
-        <v>4693.117486119999</v>
+        <v>1743.198086119999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3864,9 +3798,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,7 +3814,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C86" t="n">
         <v>9550</v>
@@ -3891,13 +3823,13 @@
         <v>9550</v>
       </c>
       <c r="E86" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F86" t="n">
-        <v>33</v>
+        <v>6.29</v>
       </c>
       <c r="G86" t="n">
-        <v>4693.117486119999</v>
+        <v>1749.488086119999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3906,9 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,10 +3866,10 @@
         <v>9550</v>
       </c>
       <c r="F87" t="n">
-        <v>131</v>
+        <v>9.6342</v>
       </c>
       <c r="G87" t="n">
-        <v>4693.117486119999</v>
+        <v>1749.488086119999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3948,9 +3878,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,22 +3894,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="C88" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="D88" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="E88" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="F88" t="n">
-        <v>67.92400000000001</v>
+        <v>23.4681</v>
       </c>
       <c r="G88" t="n">
-        <v>4693.117486119999</v>
+        <v>1726.019986119999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3990,9 +3918,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,22 +3934,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="C89" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="D89" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="E89" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="F89" t="n">
-        <v>34.5</v>
+        <v>75.1276</v>
       </c>
       <c r="G89" t="n">
-        <v>4727.617486119999</v>
+        <v>1801.147586119999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4032,9 +3958,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,22 +3974,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="C90" t="n">
-        <v>9580</v>
+        <v>9500</v>
       </c>
       <c r="D90" t="n">
-        <v>9580</v>
+        <v>9505</v>
       </c>
       <c r="E90" t="n">
-        <v>9580</v>
+        <v>9500</v>
       </c>
       <c r="F90" t="n">
-        <v>3.6073</v>
+        <v>31.0912</v>
       </c>
       <c r="G90" t="n">
-        <v>4724.010186119999</v>
+        <v>1770.056386119999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4074,9 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,22 +4014,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="C91" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D91" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E91" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="F91" t="n">
-        <v>32</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>4756.010186119999</v>
+        <v>1770.056386119999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4116,9 +4038,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,40 +4054,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9590</v>
+        <v>9495</v>
       </c>
       <c r="C92" t="n">
-        <v>9590</v>
+        <v>9550</v>
       </c>
       <c r="D92" t="n">
-        <v>9590</v>
+        <v>9565</v>
       </c>
       <c r="E92" t="n">
-        <v>9590</v>
+        <v>9480</v>
       </c>
       <c r="F92" t="n">
-        <v>38.5</v>
+        <v>992.0471</v>
       </c>
       <c r="G92" t="n">
-        <v>4756.010186119999</v>
+        <v>2762.103486119999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9500</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1.004473684210526</v>
+        <v>1</v>
       </c>
       <c r="N92" t="inlineStr"/>
     </row>
@@ -4176,32 +4094,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="C93" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="D93" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="E93" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>32.2283</v>
       </c>
       <c r="G93" t="n">
-        <v>4751.010186119999</v>
+        <v>2729.875186119999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4212,7 +4134,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9560</v>
+        <v>9480</v>
       </c>
       <c r="C94" t="n">
         <v>9560</v>
@@ -4221,23 +4143,27 @@
         <v>9560</v>
       </c>
       <c r="E94" t="n">
-        <v>9560</v>
+        <v>9480</v>
       </c>
       <c r="F94" t="n">
-        <v>11.7954</v>
+        <v>871.4606</v>
       </c>
       <c r="G94" t="n">
-        <v>4751.010186119999</v>
+        <v>3601.335786119999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4248,32 +4174,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9585</v>
+        <v>9475</v>
       </c>
       <c r="C95" t="n">
-        <v>9590</v>
+        <v>9425</v>
       </c>
       <c r="D95" t="n">
-        <v>9590</v>
+        <v>9475</v>
       </c>
       <c r="E95" t="n">
-        <v>9585</v>
+        <v>9425</v>
       </c>
       <c r="F95" t="n">
-        <v>95</v>
+        <v>114.6687</v>
       </c>
       <c r="G95" t="n">
-        <v>4846.010186119999</v>
+        <v>3486.667086119999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4284,32 +4214,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="C96" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="D96" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="E96" t="n">
-        <v>9590</v>
+        <v>9460</v>
       </c>
       <c r="F96" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>4846.010186119999</v>
+        <v>3506.667086119999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4320,32 +4254,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="C97" t="n">
-        <v>9600</v>
+        <v>9535</v>
       </c>
       <c r="D97" t="n">
-        <v>9600</v>
+        <v>9535</v>
       </c>
       <c r="E97" t="n">
-        <v>9590</v>
+        <v>9530</v>
       </c>
       <c r="F97" t="n">
-        <v>34</v>
+        <v>11.1779</v>
       </c>
       <c r="G97" t="n">
-        <v>4880.010186119999</v>
+        <v>3517.844986119999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4356,32 +4294,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9555</v>
+        <v>9535</v>
       </c>
       <c r="C98" t="n">
-        <v>9555</v>
+        <v>9520</v>
       </c>
       <c r="D98" t="n">
-        <v>9555</v>
+        <v>9535</v>
       </c>
       <c r="E98" t="n">
-        <v>9555</v>
+        <v>9520</v>
       </c>
       <c r="F98" t="n">
-        <v>34.6288</v>
+        <v>13.0967</v>
       </c>
       <c r="G98" t="n">
-        <v>4845.381386119999</v>
+        <v>3504.748286119999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4392,32 +4334,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="C99" t="n">
-        <v>9595</v>
+        <v>9535</v>
       </c>
       <c r="D99" t="n">
-        <v>9595</v>
+        <v>9535</v>
       </c>
       <c r="E99" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G99" t="n">
-        <v>4851.381386119999</v>
+        <v>3542.748286119999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4428,32 +4374,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9595</v>
+        <v>9425</v>
       </c>
       <c r="C100" t="n">
-        <v>9595</v>
+        <v>9415</v>
       </c>
       <c r="D100" t="n">
-        <v>9595</v>
+        <v>9425</v>
       </c>
       <c r="E100" t="n">
-        <v>9595</v>
+        <v>9415</v>
       </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>4851.381386119999</v>
+        <v>3492.748286119999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4464,32 +4414,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9595</v>
+        <v>9510</v>
       </c>
       <c r="C101" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="D101" t="n">
-        <v>9595</v>
+        <v>9530</v>
       </c>
       <c r="E101" t="n">
-        <v>9595</v>
+        <v>9510</v>
       </c>
       <c r="F101" t="n">
-        <v>4</v>
+        <v>12.86</v>
       </c>
       <c r="G101" t="n">
-        <v>4851.381386119999</v>
+        <v>3505.608286119999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4500,36 +4454,2778 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9595</v>
+        <v>9525</v>
       </c>
       <c r="C102" t="n">
-        <v>9600</v>
+        <v>9550</v>
       </c>
       <c r="D102" t="n">
-        <v>9600</v>
+        <v>9550</v>
       </c>
       <c r="E102" t="n">
-        <v>9595</v>
+        <v>9430</v>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>536.3916</v>
       </c>
       <c r="G102" t="n">
-        <v>4857.381386119999</v>
+        <v>4041.999886119999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4035.999886119999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E104" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F104" t="n">
+        <v>46</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4081.999886119999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9450</v>
+      </c>
+      <c r="F105" t="n">
+        <v>56</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4025.999886119999</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9450</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9450</v>
+      </c>
+      <c r="F106" t="n">
+        <v>72.59439999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4098.594286119999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9445</v>
+      </c>
+      <c r="F107" t="n">
+        <v>55.6342</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4042.960086119999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9535</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F108" t="n">
+        <v>94.41459999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4137.374686119999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9470</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9470</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9470</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9470</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4131.374686119999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9435</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F110" t="n">
+        <v>682</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3449.374686119999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F111" t="n">
+        <v>187</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3636.374686119999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9435</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15.8651</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3620.509586119999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9425</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9425</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9425</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9425</v>
+      </c>
+      <c r="F113" t="n">
+        <v>22.3678</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3598.141786119999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9420</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9420</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9420</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9420</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.8893</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3593.252486119999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9420</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9420</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9420</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9420</v>
+      </c>
+      <c r="F115" t="n">
+        <v>220.1467</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3593.252486119999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9480</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9480</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.8893</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3598.141786119999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9415</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9415</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9415</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3593.141786119999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9430</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9430</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9430</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9430</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4.2019</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3597.343686119999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9425</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9425</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9425</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9425</v>
+      </c>
+      <c r="F119" t="n">
+        <v>16.7987</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3580.544986119999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9415</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9455</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9415</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.3231</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3580.221886119999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9410</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9400</v>
+      </c>
+      <c r="F121" t="n">
+        <v>214.4752</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3794.697086119999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9400</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9400</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9400</v>
+      </c>
+      <c r="F122" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3766.897086119999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9480</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9400</v>
+      </c>
+      <c r="F123" t="n">
+        <v>611.9446</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4378.841686119998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9480</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9480</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.3258</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4380.167486119998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4386.657486119998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4386.657486119998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9525</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9525</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4393.047486119998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4393.047486119998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4391.047486119998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4391.047486119998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4381.047486119998</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9490</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F132" t="n">
+        <v>42</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4381.047486119998</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9490</v>
+      </c>
+      <c r="F133" t="n">
+        <v>34</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4415.047486119998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F134" t="n">
+        <v>32</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4415.047486119998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4415.047486119998</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9520</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F136" t="n">
+        <v>40</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4455.047486119998</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9520</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9520</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9520</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4455.047486119998</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9520</v>
+      </c>
+      <c r="F138" t="n">
+        <v>186</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4641.047486119998</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4641.047486119998</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E140" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4641.047486119998</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E141" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4641.047486119998</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4627.807486119998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4627.807486119998</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C144" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4627.807486119998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C145" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4631.117486119999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C146" t="n">
+        <v>9545</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9545</v>
+      </c>
+      <c r="E146" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F146" t="n">
+        <v>70.02679999999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4631.117486119999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9545</v>
+      </c>
+      <c r="C147" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9545</v>
+      </c>
+      <c r="F147" t="n">
+        <v>62</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C148" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E148" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F149" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C150" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F150" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F152" t="n">
+        <v>62</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F153" t="n">
+        <v>42</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C154" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C155" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F155" t="n">
+        <v>53</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C156" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F157" t="n">
+        <v>33</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F158" t="n">
+        <v>131</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F159" t="n">
+        <v>67.92400000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4693.117486119999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9585</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9585</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F160" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4727.617486119999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.6073</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4724.010186119999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F162" t="n">
+        <v>32</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4756.010186119999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F163" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4756.010186119999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4751.010186119999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9560</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9560</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9560</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9560</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11.7954</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4751.010186119999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F166" t="n">
+        <v>95</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4846.010186119999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4846.010186119999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F168" t="n">
+        <v>34</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4880.010186119999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F169" t="n">
+        <v>34.6288</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4845.381386119999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D170" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4851.381386119999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C171" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4851.381386119999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4851.381386119999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4857.381386119999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>9400</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>9435</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>9460</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>9420</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>9455</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>9460</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,22 +718,21 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,20 +759,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,20 +796,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -866,20 +833,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,22 +868,21 @@
         <v>1490.30298981</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,22 +907,21 @@
         <v>1384.25848981</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9495</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -984,24 +946,21 @@
         <v>1273.28338981</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>9430</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,24 +985,21 @@
         <v>1282.97388981</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>9425</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1068,24 +1024,19 @@
         <v>1314.97388981</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1112,20 +1063,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1150,24 +1098,21 @@
         <v>1354.89018981</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>9475</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1192,22 +1137,21 @@
         <v>1591.47698981</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9475</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1234,20 +1178,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1274,20 +1215,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1314,20 +1252,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1354,20 +1289,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1326,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1434,20 +1363,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1474,20 +1400,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1514,20 +1437,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,20 +1474,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1594,20 +1511,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1634,20 +1548,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1674,20 +1585,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1714,20 +1622,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1754,20 +1659,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1794,20 +1696,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,20 +1733,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1874,20 +1770,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1914,20 +1807,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1954,20 +1844,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1992,22 +1879,19 @@
         <v>2130.039286119999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2032,22 +1916,19 @@
         <v>2102.039286119999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2072,22 +1953,19 @@
         <v>2124.039286119999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2114,20 +1992,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2154,20 +2029,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,20 +2066,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,20 +2103,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2274,20 +2140,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2314,20 +2177,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2352,22 +2212,19 @@
         <v>2208.622886119999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2392,22 +2249,19 @@
         <v>2212.916786119999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2434,20 +2288,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2474,20 +2325,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2514,20 +2362,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,20 +2399,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2594,20 +2436,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2634,20 +2473,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2674,20 +2510,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2714,20 +2547,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2754,20 +2584,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2794,20 +2621,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2834,20 +2658,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2874,20 +2695,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2914,20 +2732,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,20 +2769,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,20 +2806,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3034,20 +2843,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3074,20 +2880,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3114,20 +2917,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,20 +2954,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3194,20 +2991,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,20 +3028,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3274,20 +3065,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3314,20 +3102,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3354,20 +3139,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3394,20 +3176,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3434,20 +3213,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3474,20 +3250,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3514,20 +3287,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3554,20 +3324,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3594,20 +3361,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3634,20 +3398,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3674,20 +3435,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3714,20 +3472,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3754,20 +3509,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3794,20 +3546,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3834,20 +3583,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3874,20 +3620,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3914,20 +3657,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3954,20 +3694,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3994,20 +3731,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4034,20 +3768,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4074,20 +3805,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4114,20 +3842,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4154,20 +3879,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4194,20 +3916,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4234,20 +3953,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4274,20 +3990,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4314,20 +4027,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4354,20 +4064,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4394,20 +4101,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4434,20 +4138,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4474,20 +4175,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4514,20 +4212,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4554,20 +4249,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4594,20 +4286,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4634,20 +4323,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4674,20 +4360,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4714,20 +4397,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4754,20 +4434,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4794,20 +4471,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4834,20 +4508,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4874,20 +4545,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4914,20 +4582,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4954,20 +4619,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4994,20 +4656,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5034,20 +4693,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5074,20 +4730,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5114,20 +4767,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5154,20 +4804,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5194,20 +4841,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5234,20 +4878,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5274,20 +4915,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5314,20 +4952,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5354,20 +4989,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5394,20 +5026,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5434,20 +5063,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5474,20 +5100,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5514,20 +5137,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5554,20 +5174,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5594,20 +5211,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5634,20 +5248,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5674,20 +5285,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5714,20 +5322,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5754,20 +5359,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5794,20 +5396,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5834,20 +5433,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5874,20 +5470,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5914,20 +5507,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5954,20 +5544,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5994,20 +5581,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6034,20 +5618,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6074,20 +5655,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6114,20 +5692,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6154,20 +5729,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6194,20 +5766,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6234,20 +5803,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6274,20 +5840,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6312,20 +5875,17 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6352,16 +5912,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6386,18 +5943,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6424,16 +5978,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6460,16 +6011,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6494,18 +6042,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6530,18 +6075,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6566,18 +6108,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6602,18 +6141,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6638,18 +6174,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6674,18 +6207,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6710,18 +6240,15 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6746,18 +6273,15 @@
         <v>4727.617486119999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6782,18 +6306,15 @@
         <v>4724.010186119999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6818,18 +6339,15 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6854,18 +6372,15 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6890,18 +6405,15 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6926,18 +6438,15 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6962,18 +6471,15 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6998,18 +6504,15 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7034,18 +6537,15 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7070,18 +6570,15 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7106,18 +6603,15 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7142,18 +6636,15 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7178,18 +6669,15 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7214,20 +6702,17 @@
         <v>4857.381386119999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9400</v>
@@ -523,7 +523,7 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9435</v>
@@ -562,7 +562,7 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9460</v>
@@ -601,7 +601,7 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9420</v>
@@ -640,7 +640,7 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>9455</v>
@@ -679,7 +679,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>9460</v>
@@ -718,7 +718,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>9495</v>
@@ -757,9 +757,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9495</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -794,9 +796,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9495</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -831,9 +835,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9495</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -868,7 +874,7 @@
         <v>1490.30298981</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>9495</v>
@@ -907,7 +913,7 @@
         <v>1384.25848981</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>9495</v>
@@ -946,7 +952,7 @@
         <v>1273.28338981</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>9430</v>
@@ -985,7 +991,7 @@
         <v>1282.97388981</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>9425</v>
@@ -1024,9 +1030,11 @@
         <v>1314.97388981</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9460</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1061,9 +1069,11 @@
         <v>1354.89018981</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9470</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1098,7 +1108,7 @@
         <v>1354.89018981</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>9475</v>
@@ -1137,7 +1147,7 @@
         <v>1591.47698981</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>9475</v>
@@ -1176,9 +1186,11 @@
         <v>1591.47698981</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9495</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1879,7 +1891,7 @@
         <v>2130.039286119999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1916,7 +1928,7 @@
         <v>2102.039286119999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1953,7 +1965,7 @@
         <v>2124.039286119999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2212,7 +2224,7 @@
         <v>2208.622886119999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2249,7 +2261,7 @@
         <v>2212.916786119999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2878,18 +2890,16 @@
         <v>2040.277386119999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2915,15 +2925,11 @@
         <v>2052.277386119999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2952,15 +2958,11 @@
         <v>2089.777386119999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2989,15 +2991,11 @@
         <v>2161.277386119999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3026,15 +3024,11 @@
         <v>2161.277386119999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3063,15 +3057,11 @@
         <v>2157.277386119999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3100,15 +3090,11 @@
         <v>2157.277386119999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3137,15 +3123,11 @@
         <v>2185.277386119999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3174,15 +3156,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3211,15 +3189,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,15 +3222,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3285,15 +3255,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3322,15 +3288,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3359,15 +3321,11 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3396,15 +3354,11 @@
         <v>2011.872686119999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3433,15 +3387,11 @@
         <v>1961.671586119999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3470,15 +3420,11 @@
         <v>1993.171586119999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3507,15 +3453,11 @@
         <v>1989.171586119999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3544,15 +3486,11 @@
         <v>1743.198086119999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3581,15 +3519,11 @@
         <v>1749.488086119999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3618,15 +3552,11 @@
         <v>1749.488086119999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3655,15 +3585,11 @@
         <v>1726.019986119999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3692,15 +3618,11 @@
         <v>1801.147586119999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3729,15 +3651,11 @@
         <v>1770.056386119999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3766,15 +3684,11 @@
         <v>1770.056386119999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3803,15 +3717,11 @@
         <v>2762.103486119999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3840,15 +3750,11 @@
         <v>2729.875186119999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3877,15 +3783,11 @@
         <v>3601.335786119999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3914,15 +3816,11 @@
         <v>3486.667086119999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3951,15 +3849,11 @@
         <v>3506.667086119999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3988,15 +3882,11 @@
         <v>3517.844986119999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4025,15 +3915,11 @@
         <v>3504.748286119999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +3952,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4099,15 +3981,11 @@
         <v>3492.748286119999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4136,15 +4014,11 @@
         <v>3505.608286119999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4173,15 +4047,11 @@
         <v>4041.999886119999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4210,15 +4080,11 @@
         <v>4035.999886119999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4247,15 +4113,11 @@
         <v>4081.999886119999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4284,15 +4146,11 @@
         <v>4025.999886119999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4321,15 +4179,11 @@
         <v>4098.594286119999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4362,11 +4216,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +4249,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4432,15 +4278,11 @@
         <v>4131.374686119999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4469,15 +4311,11 @@
         <v>3449.374686119999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4506,15 +4344,11 @@
         <v>3636.374686119999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4543,15 +4377,11 @@
         <v>3620.509586119999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4580,15 +4410,11 @@
         <v>3598.141786119999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4617,15 +4443,11 @@
         <v>3593.252486119999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4654,15 +4476,11 @@
         <v>3593.252486119999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4691,15 +4509,11 @@
         <v>3598.141786119999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4546,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4769,11 +4579,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4806,11 +4612,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4839,15 +4641,11 @@
         <v>3580.221886119999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4876,15 +4674,11 @@
         <v>3794.697086119999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4913,15 +4707,11 @@
         <v>3766.897086119999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4950,15 +4740,11 @@
         <v>4378.841686119998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +4777,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5028,11 +4810,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5065,11 +4843,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +4876,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5139,11 +4909,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5176,11 +4942,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5209,15 +4971,11 @@
         <v>4391.047486119998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +5008,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5041,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +5074,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5361,11 +5107,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5394,15 +5136,11 @@
         <v>4415.047486119998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +5173,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +5206,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5505,15 +5235,11 @@
         <v>4641.047486119998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5546,11 +5272,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +5305,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5616,15 +5334,11 @@
         <v>4641.047486119998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5371,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5694,11 +5404,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5727,15 +5433,11 @@
         <v>4627.807486119998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5470,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5801,15 +5499,11 @@
         <v>4631.117486119999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5838,15 +5532,11 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5875,16 +5565,14 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -5910,7 +5598,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5943,7 +5631,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5976,7 +5664,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6009,7 +5697,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6042,7 +5730,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6075,7 +5763,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6108,7 +5796,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6141,7 +5829,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6174,7 +5862,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6207,7 +5895,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6240,7 +5928,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6273,7 +5961,7 @@
         <v>4727.617486119999</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6306,7 +5994,7 @@
         <v>4724.010186119999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6339,7 +6027,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6372,7 +6060,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6405,7 +6093,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6438,7 +6126,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6471,7 +6159,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6504,7 +6192,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6537,7 +6225,7 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6570,7 +6258,7 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6603,7 +6291,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6636,7 +6324,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6669,7 +6357,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6702,7 +6390,7 @@
         <v>4857.381386119999</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6713,6 +6401,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9400</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9435</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9460</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9420</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9455</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9495</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>1490.30298981</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>1384.25848981</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>1273.28338981</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>1282.97388981</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>1314.97388981</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>1354.89018981</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>1354.89018981</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>1591.47698981</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9475</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>1591.47698981</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1229,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1266,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1340,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1377,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1414,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1451,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1484,15 +1342,15 @@
         <v>2014.70268981</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9490</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9490</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1524,10 +1382,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9490</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1561,10 +1421,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9490</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1599,11 +1461,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1636,11 +1494,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1527,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1710,11 +1560,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1747,11 +1593,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1784,11 +1626,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1821,11 +1659,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1858,11 +1692,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1895,11 +1725,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1758,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1791,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2006,11 +1824,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2043,11 +1857,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2080,11 +1890,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +1923,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2154,11 +1956,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2191,11 +1989,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2228,11 +2022,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2265,11 +2055,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2088,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2121,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2376,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2413,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2286,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2319,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2352,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2635,11 +2385,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2672,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2709,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2550,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2890,16 +2612,14 @@
         <v>2040.277386119999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2925,7 +2645,7 @@
         <v>2052.277386119999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2958,7 +2678,7 @@
         <v>2089.777386119999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2991,7 +2711,7 @@
         <v>2161.277386119999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3024,7 +2744,7 @@
         <v>2161.277386119999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3057,7 +2777,7 @@
         <v>2157.277386119999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3090,7 +2810,7 @@
         <v>2157.277386119999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3123,7 +2843,7 @@
         <v>2185.277386119999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3156,7 +2876,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3189,7 +2909,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3222,7 +2942,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3255,7 +2975,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3288,7 +3008,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3321,7 +3041,7 @@
         <v>2211.277386119999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3354,7 +3074,7 @@
         <v>2011.872686119999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3387,7 +3107,7 @@
         <v>1961.671586119999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3420,7 +3140,7 @@
         <v>1993.171586119999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3453,7 +3173,7 @@
         <v>1989.171586119999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3486,7 +3206,7 @@
         <v>1743.198086119999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3519,7 +3239,7 @@
         <v>1749.488086119999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3552,7 +3272,7 @@
         <v>1749.488086119999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3585,7 +3305,7 @@
         <v>1726.019986119999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3618,7 +3338,7 @@
         <v>1801.147586119999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3651,7 +3371,7 @@
         <v>1770.056386119999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3684,7 +3404,7 @@
         <v>1770.056386119999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3717,7 +3437,7 @@
         <v>2762.103486119999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3750,7 +3470,7 @@
         <v>2729.875186119999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3783,7 +3503,7 @@
         <v>3601.335786119999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3816,7 +3536,7 @@
         <v>3486.667086119999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3849,7 +3569,7 @@
         <v>3506.667086119999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3882,7 +3602,7 @@
         <v>3517.844986119999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3915,7 +3635,7 @@
         <v>3504.748286119999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3981,7 +3701,7 @@
         <v>3492.748286119999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4014,7 +3734,7 @@
         <v>3505.608286119999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4047,7 +3767,7 @@
         <v>4041.999886119999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4080,7 +3800,7 @@
         <v>4035.999886119999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4113,7 +3833,7 @@
         <v>4081.999886119999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4146,7 +3866,7 @@
         <v>4025.999886119999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4179,7 +3899,7 @@
         <v>4098.594286119999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4278,7 +3998,7 @@
         <v>4131.374686119999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4311,7 +4031,7 @@
         <v>3449.374686119999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4344,7 +4064,7 @@
         <v>3636.374686119999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4377,7 +4097,7 @@
         <v>3620.509586119999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4410,7 +4130,7 @@
         <v>3598.141786119999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4443,7 +4163,7 @@
         <v>3593.252486119999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4476,7 +4196,7 @@
         <v>3593.252486119999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4509,7 +4229,7 @@
         <v>3598.141786119999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4641,7 +4361,7 @@
         <v>3580.221886119999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4674,7 +4394,7 @@
         <v>3794.697086119999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4707,7 +4427,7 @@
         <v>3766.897086119999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4740,7 +4460,7 @@
         <v>4378.841686119998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4971,7 +4691,7 @@
         <v>4391.047486119998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5136,7 +4856,7 @@
         <v>4415.047486119998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5235,7 +4955,7 @@
         <v>4641.047486119998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5334,7 +5054,7 @@
         <v>4641.047486119998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5433,7 +5153,7 @@
         <v>4627.807486119998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5499,7 +5219,7 @@
         <v>4631.117486119999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5532,7 +5252,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5565,7 +5285,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5598,7 +5318,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5631,7 +5351,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5664,7 +5384,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5697,7 +5417,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5730,7 +5450,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5763,7 +5483,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5796,7 +5516,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5829,7 +5549,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5862,7 +5582,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5895,7 +5615,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5928,7 +5648,7 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5961,7 +5681,7 @@
         <v>4727.617486119999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5994,7 +5714,7 @@
         <v>4724.010186119999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6027,7 +5747,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6060,7 +5780,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6093,7 +5813,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6126,7 +5846,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6159,7 +5879,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6192,7 +5912,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6225,7 +5945,7 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6258,7 +5978,7 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6291,7 +6011,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6324,7 +6044,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6401,6 +6121,6 @@
       <c r="M173" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>1131.36080821</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1255.86080821</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9400</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1377.66328981</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9435</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,15 @@
         <v>1256.16528981</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +599,17 @@
         <v>1278.60458981</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9420</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +638,17 @@
         <v>1282.80298981</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9455</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,17 @@
         <v>1490.30298981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9460</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +716,15 @@
         <v>1490.30298981</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +794,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +831,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +868,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +979,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1016,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1238,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1275,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1312,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1349,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1386,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1423,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,15 +1456,15 @@
         <v>2014.70268981</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9490</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9490</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1382,12 +1496,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>9490</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1421,12 +1533,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9490</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1461,7 +1571,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1494,7 +1608,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1527,7 +1645,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1560,7 +1682,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1719,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1626,7 +1756,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1659,7 +1793,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,7 +1830,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,7 +1867,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,7 +1904,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,7 +1941,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,7 +1978,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,7 +2015,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1890,7 +2052,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +2089,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,7 +2126,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,7 +2163,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,7 +2200,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,7 +2237,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2274,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2311,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2348,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2385,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2422,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2459,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2496,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2533,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2570,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2607,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2644,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2681,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2718,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2755,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2792,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2829,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2866,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2903,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2940,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2977,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +3014,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +3051,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +3088,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +3125,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,7 +3162,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3199,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3236,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3273,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3310,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3347,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3384,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3421,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3458,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3495,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3532,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3569,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3606,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3643,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3680,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3717,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3754,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3791,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3828,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3865,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,7 +3902,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3939,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3976,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +4013,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +4050,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +4087,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +4124,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +4161,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +4198,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +4235,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +4272,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,7 +4309,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4346,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,7 +4383,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +4420,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4457,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4494,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4531,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4568,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4605,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4642,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4679,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4716,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4753,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4790,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4827,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4864,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4901,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4938,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4975,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +5012,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +5049,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,7 +5086,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,7 +5123,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +5160,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4695,7 +5197,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5234,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +5271,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +5308,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4827,7 +5345,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4860,7 +5382,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4893,7 +5419,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4926,7 +5456,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,7 +5493,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4992,7 +5530,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +5567,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5058,7 +5604,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5091,7 +5641,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +5678,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,7 +5715,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +5752,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5223,7 +5789,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5256,7 +5826,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5863,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +5900,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5937,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5974,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +6011,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +6048,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +6085,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +6122,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +6159,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +6196,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5619,7 +6233,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +6266,16 @@
         <v>4693.117486119999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -5714,7 +6334,7 @@
         <v>4724.010186119999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5747,7 +6367,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +6400,7 @@
         <v>4756.010186119999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +6433,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5846,7 +6466,7 @@
         <v>4751.010186119999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5879,7 +6499,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5912,7 +6532,7 @@
         <v>4846.010186119999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +6565,7 @@
         <v>4880.010186119999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +6598,7 @@
         <v>4845.381386119999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +6631,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6664,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6697,7 @@
         <v>4851.381386119999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6730,7 @@
         <v>4857.381386119999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest BTG.xlsx
+++ b/BackTest/2019-10-15 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>187</v>
       </c>
       <c r="G2" t="n">
-        <v>1131.36080821</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>124.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1255.86080821</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>9400</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>121.8024816</v>
       </c>
       <c r="G4" t="n">
-        <v>1377.66328981</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>9435</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,22 +545,21 @@
         <v>121.498</v>
       </c>
       <c r="G5" t="n">
-        <v>1256.16528981</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9460</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,24 +581,21 @@
         <v>22.4393</v>
       </c>
       <c r="G6" t="n">
-        <v>1278.60458981</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>9420</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,24 +617,21 @@
         <v>4.1984</v>
       </c>
       <c r="G7" t="n">
-        <v>1282.80298981</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>9455</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,24 +653,19 @@
         <v>207.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9460</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,22 +687,19 @@
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,22 +721,19 @@
         <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,22 +755,19 @@
         <v>77.23779999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,22 +789,19 @@
         <v>33.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -861,22 +823,19 @@
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>1490.30298981</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,22 +857,19 @@
         <v>106.0445</v>
       </c>
       <c r="G14" t="n">
-        <v>1384.25848981</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,22 +891,21 @@
         <v>110.9751</v>
       </c>
       <c r="G15" t="n">
-        <v>1273.28338981</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>9430</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -972,22 +927,19 @@
         <v>9.6905</v>
       </c>
       <c r="G16" t="n">
-        <v>1282.97388981</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,22 +961,19 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>1314.97388981</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1046,22 +995,21 @@
         <v>39.9163</v>
       </c>
       <c r="G18" t="n">
-        <v>1354.89018981</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9470</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1083,22 +1031,21 @@
         <v>1.6435</v>
       </c>
       <c r="G19" t="n">
-        <v>1354.89018981</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>9475</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1120,22 +1067,19 @@
         <v>236.5868</v>
       </c>
       <c r="G20" t="n">
-        <v>1591.47698981</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1157,22 +1101,19 @@
         <v>113.8044</v>
       </c>
       <c r="G21" t="n">
-        <v>1591.47698981</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,22 +1135,19 @@
         <v>32.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1591.47698981</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1231,22 +1169,19 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1589.47698981</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,22 +1203,19 @@
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>1589.47698981</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1305,22 +1237,19 @@
         <v>51</v>
       </c>
       <c r="G25" t="n">
-        <v>1589.47698981</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,22 +1271,21 @@
         <v>287.7959</v>
       </c>
       <c r="G26" t="n">
-        <v>1877.27288981</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9470</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1379,22 +1307,21 @@
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>1872.27288981</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9485</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1416,22 +1343,21 @@
         <v>47.3355</v>
       </c>
       <c r="G28" t="n">
-        <v>1919.60838981</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9445</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1453,22 +1379,21 @@
         <v>95.0943</v>
       </c>
       <c r="G29" t="n">
-        <v>2014.70268981</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9490</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1490,22 +1415,19 @@
         <v>221.9605</v>
       </c>
       <c r="G30" t="n">
-        <v>2014.70268981</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1527,22 +1449,19 @@
         <v>38.5</v>
       </c>
       <c r="G31" t="n">
-        <v>2053.20268981</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1564,22 +1483,19 @@
         <v>49</v>
       </c>
       <c r="G32" t="n">
-        <v>2004.20268981</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1601,22 +1517,19 @@
         <v>138.8781</v>
       </c>
       <c r="G33" t="n">
-        <v>2143.08078981</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1638,22 +1551,19 @@
         <v>20.9</v>
       </c>
       <c r="G34" t="n">
-        <v>2122.18078981</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1675,22 +1585,19 @@
         <v>6.33</v>
       </c>
       <c r="G35" t="n">
-        <v>2122.18078981</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1712,22 +1619,19 @@
         <v>1.07150369</v>
       </c>
       <c r="G36" t="n">
-        <v>2121.10928612</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1749,22 +1653,19 @@
         <v>130.3003</v>
       </c>
       <c r="G37" t="n">
-        <v>2251.409586119999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1786,22 +1687,19 @@
         <v>86.8703</v>
       </c>
       <c r="G38" t="n">
-        <v>2164.539286119999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1823,22 +1721,19 @@
         <v>34.5</v>
       </c>
       <c r="G39" t="n">
-        <v>2130.039286119999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1860,22 +1755,19 @@
         <v>66.5</v>
       </c>
       <c r="G40" t="n">
-        <v>2130.039286119999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1897,22 +1789,19 @@
         <v>28</v>
       </c>
       <c r="G41" t="n">
-        <v>2102.039286119999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1934,22 +1823,19 @@
         <v>22</v>
       </c>
       <c r="G42" t="n">
-        <v>2124.039286119999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1971,22 +1857,19 @@
         <v>14</v>
       </c>
       <c r="G43" t="n">
-        <v>2110.039286119999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2008,22 +1891,19 @@
         <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>2110.039286119999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2045,22 +1925,19 @@
         <v>33</v>
       </c>
       <c r="G45" t="n">
-        <v>2110.039286119999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2082,22 +1959,19 @@
         <v>6.44</v>
       </c>
       <c r="G46" t="n">
-        <v>2110.039286119999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2119,22 +1993,19 @@
         <v>92</v>
       </c>
       <c r="G47" t="n">
-        <v>2202.039286119999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2156,22 +2027,19 @@
         <v>41.5</v>
       </c>
       <c r="G48" t="n">
-        <v>2243.539286119999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2193,22 +2061,19 @@
         <v>34.9164</v>
       </c>
       <c r="G49" t="n">
-        <v>2208.622886119999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2230,22 +2095,19 @@
         <v>4.2939</v>
       </c>
       <c r="G50" t="n">
-        <v>2212.916786119999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2267,22 +2129,19 @@
         <v>6.38</v>
       </c>
       <c r="G51" t="n">
-        <v>2212.916786119999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2304,22 +2163,19 @@
         <v>34</v>
       </c>
       <c r="G52" t="n">
-        <v>2246.916786119999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2341,22 +2197,19 @@
         <v>33</v>
       </c>
       <c r="G53" t="n">
-        <v>2246.916786119999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2378,22 +2231,19 @@
         <v>29.5</v>
       </c>
       <c r="G54" t="n">
-        <v>2276.416786119999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2415,22 +2265,19 @@
         <v>0.1076</v>
       </c>
       <c r="G55" t="n">
-        <v>2276.30918612</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2452,22 +2299,19 @@
         <v>6.83</v>
       </c>
       <c r="G56" t="n">
-        <v>2283.13918612</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2489,22 +2333,19 @@
         <v>21.9308</v>
       </c>
       <c r="G57" t="n">
-        <v>2261.208386119999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2526,22 +2367,19 @@
         <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>2261.208386119999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2563,22 +2401,19 @@
         <v>9.3888</v>
       </c>
       <c r="G59" t="n">
-        <v>2261.208386119999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2600,22 +2435,19 @@
         <v>64.6554</v>
       </c>
       <c r="G60" t="n">
-        <v>2325.86378612</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2637,22 +2469,19 @@
         <v>3.4575</v>
       </c>
       <c r="G61" t="n">
-        <v>2322.40628612</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2674,22 +2503,19 @@
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>2322.40628612</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2711,22 +2537,19 @@
         <v>17.6289</v>
       </c>
       <c r="G63" t="n">
-        <v>2304.777386119999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2748,22 +2571,19 @@
         <v>68.5</v>
       </c>
       <c r="G64" t="n">
-        <v>2373.277386119999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2785,22 +2605,19 @@
         <v>36</v>
       </c>
       <c r="G65" t="n">
-        <v>2409.277386119999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2822,22 +2639,19 @@
         <v>30.5</v>
       </c>
       <c r="G66" t="n">
-        <v>2409.277386119999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2859,22 +2673,19 @@
         <v>369</v>
       </c>
       <c r="G67" t="n">
-        <v>2040.277386119999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2896,22 +2707,19 @@
         <v>12</v>
       </c>
       <c r="G68" t="n">
-        <v>2052.277386119999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2933,22 +2741,19 @@
         <v>37.5</v>
       </c>
       <c r="G69" t="n">
-        <v>2089.777386119999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2970,22 +2775,19 @@
         <v>71.5</v>
       </c>
       <c r="G70" t="n">
-        <v>2161.277386119999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3007,22 +2809,19 @@
         <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>2161.277386119999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3044,22 +2843,19 @@
         <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>2157.277386119999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3081,22 +2877,19 @@
         <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>2157.277386119999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3118,22 +2911,19 @@
         <v>28</v>
       </c>
       <c r="G74" t="n">
-        <v>2185.277386119999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3155,22 +2945,19 @@
         <v>26</v>
       </c>
       <c r="G75" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3192,22 +2979,19 @@
         <v>8.880000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3229,22 +3013,19 @@
         <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3266,22 +3047,19 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3303,22 +3081,19 @@
         <v>22.7494</v>
       </c>
       <c r="G79" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3340,22 +3115,19 @@
         <v>32</v>
       </c>
       <c r="G80" t="n">
-        <v>2211.277386119999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3377,22 +3149,19 @@
         <v>199.4047</v>
       </c>
       <c r="G81" t="n">
-        <v>2011.872686119999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3414,22 +3183,19 @@
         <v>50.2011</v>
       </c>
       <c r="G82" t="n">
-        <v>1961.671586119999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3451,22 +3217,19 @@
         <v>31.5</v>
       </c>
       <c r="G83" t="n">
-        <v>1993.171586119999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3488,22 +3251,19 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>1989.171586119999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3525,22 +3285,19 @@
         <v>245.9735</v>
       </c>
       <c r="G85" t="n">
-        <v>1743.198086119999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3562,22 +3319,19 @@
         <v>6.29</v>
       </c>
       <c r="G86" t="n">
-        <v>1749.488086119999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3599,22 +3353,19 @@
         <v>9.6342</v>
       </c>
       <c r="G87" t="n">
-        <v>1749.488086119999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3636,22 +3387,19 @@
         <v>23.4681</v>
       </c>
       <c r="G88" t="n">
-        <v>1726.019986119999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3673,22 +3421,19 @@
         <v>75.1276</v>
       </c>
       <c r="G89" t="n">
-        <v>1801.147586119999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3710,22 +3455,19 @@
         <v>31.0912</v>
       </c>
       <c r="G90" t="n">
-        <v>1770.056386119999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3747,22 +3489,19 @@
         <v>0.9088000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>1770.056386119999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3784,22 +3523,19 @@
         <v>992.0471</v>
       </c>
       <c r="G92" t="n">
-        <v>2762.103486119999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3821,22 +3557,19 @@
         <v>32.2283</v>
       </c>
       <c r="G93" t="n">
-        <v>2729.875186119999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3858,22 +3591,19 @@
         <v>871.4606</v>
       </c>
       <c r="G94" t="n">
-        <v>3601.335786119999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3895,22 +3625,19 @@
         <v>114.6687</v>
       </c>
       <c r="G95" t="n">
-        <v>3486.667086119999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,22 +3659,19 @@
         <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>3506.667086119999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3969,22 +3693,19 @@
         <v>11.1779</v>
       </c>
       <c r="G97" t="n">
-        <v>3517.844986119999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4006,22 +3727,19 @@
         <v>13.0967</v>
       </c>
       <c r="G98" t="n">
-        <v>3504.748286119999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4043,22 +3761,19 @@
         <v>38</v>
       </c>
       <c r="G99" t="n">
-        <v>3542.748286119999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4080,22 +3795,19 @@
         <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>3492.748286119999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4117,22 +3829,19 @@
         <v>12.86</v>
       </c>
       <c r="G101" t="n">
-        <v>3505.608286119999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4154,22 +3863,19 @@
         <v>536.3916</v>
       </c>
       <c r="G102" t="n">
-        <v>4041.999886119999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4191,22 +3897,19 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>4035.999886119999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4228,22 +3931,19 @@
         <v>46</v>
       </c>
       <c r="G104" t="n">
-        <v>4081.999886119999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4265,22 +3965,19 @@
         <v>56</v>
       </c>
       <c r="G105" t="n">
-        <v>4025.999886119999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4302,22 +3999,19 @@
         <v>72.59439999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>4098.594286119999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4339,22 +4033,19 @@
         <v>55.6342</v>
       </c>
       <c r="G107" t="n">
-        <v>4042.960086119999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4376,22 +4067,19 @@
         <v>94.41459999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>4137.374686119999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4413,22 +4101,19 @@
         <v>6</v>
       </c>
       <c r="G109" t="n">
-        <v>4131.374686119999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4450,22 +4135,19 @@
         <v>682</v>
       </c>
       <c r="G110" t="n">
-        <v>3449.374686119999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4487,22 +4169,19 @@
         <v>187</v>
       </c>
       <c r="G111" t="n">
-        <v>3636.374686119999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4524,22 +4203,19 @@
         <v>15.8651</v>
       </c>
       <c r="G112" t="n">
-        <v>3620.509586119999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4561,22 +4237,19 @@
         <v>22.3678</v>
       </c>
       <c r="G113" t="n">
-        <v>3598.141786119999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4598,22 +4271,19 @@
         <v>4.8893</v>
       </c>
       <c r="G114" t="n">
-        <v>3593.252486119999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4635,22 +4305,19 @@
         <v>220.1467</v>
       </c>
       <c r="G115" t="n">
-        <v>3593.252486119999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4672,22 +4339,19 @@
         <v>4.8893</v>
       </c>
       <c r="G116" t="n">
-        <v>3598.141786119999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4709,22 +4373,19 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>3593.141786119999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4746,22 +4407,19 @@
         <v>4.2019</v>
       </c>
       <c r="G118" t="n">
-        <v>3597.343686119999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4783,22 +4441,19 @@
         <v>16.7987</v>
       </c>
       <c r="G119" t="n">
-        <v>3580.544986119999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4820,22 +4475,19 @@
         <v>0.3231</v>
       </c>
       <c r="G120" t="n">
-        <v>3580.221886119999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4857,22 +4509,19 @@
         <v>214.4752</v>
       </c>
       <c r="G121" t="n">
-        <v>3794.697086119999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4894,22 +4543,19 @@
         <v>27.8</v>
       </c>
       <c r="G122" t="n">
-        <v>3766.897086119999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4931,22 +4577,19 @@
         <v>611.9446</v>
       </c>
       <c r="G123" t="n">
-        <v>4378.841686119998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4968,22 +4611,19 @@
         <v>1.3258</v>
       </c>
       <c r="G124" t="n">
-        <v>4380.167486119998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5005,22 +4645,19 @@
         <v>6.49</v>
       </c>
       <c r="G125" t="n">
-        <v>4386.657486119998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5042,22 +4679,19 @@
         <v>6.22</v>
       </c>
       <c r="G126" t="n">
-        <v>4386.657486119998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5079,22 +4713,19 @@
         <v>6.39</v>
       </c>
       <c r="G127" t="n">
-        <v>4393.047486119998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5116,22 +4747,19 @@
         <v>6.2</v>
       </c>
       <c r="G128" t="n">
-        <v>4393.047486119998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5153,22 +4781,19 @@
         <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>4391.047486119998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5190,22 +4815,19 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>4391.047486119998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5227,22 +4849,19 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>4381.047486119998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5264,22 +4883,19 @@
         <v>42</v>
       </c>
       <c r="G132" t="n">
-        <v>4381.047486119998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5301,22 +4917,19 @@
         <v>34</v>
       </c>
       <c r="G133" t="n">
-        <v>4415.047486119998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5338,22 +4951,19 @@
         <v>32</v>
       </c>
       <c r="G134" t="n">
-        <v>4415.047486119998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5375,22 +4985,19 @@
         <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>4415.047486119998</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5412,22 +5019,19 @@
         <v>40</v>
       </c>
       <c r="G136" t="n">
-        <v>4455.047486119998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5449,22 +5053,19 @@
         <v>6.52</v>
       </c>
       <c r="G137" t="n">
-        <v>4455.047486119998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5486,22 +5087,19 @@
         <v>186</v>
       </c>
       <c r="G138" t="n">
-        <v>4641.047486119998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5523,22 +5121,19 @@
         <v>6.41</v>
       </c>
       <c r="G139" t="n">
-        <v>4641.047486119998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5560,22 +5155,19 @@
         <v>6.34</v>
       </c>
       <c r="G140" t="n">
-        <v>4641.047486119998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5597,22 +5189,19 @@
         <v>13.97</v>
       </c>
       <c r="G141" t="n">
-        <v>4641.047486119998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5634,22 +5223,19 @@
         <v>13.24</v>
       </c>
       <c r="G142" t="n">
-        <v>4627.807486119998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5671,22 +5257,19 @@
         <v>6.27</v>
       </c>
       <c r="G143" t="n">
-        <v>4627.807486119998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5708,22 +5291,19 @@
         <v>6.64</v>
       </c>
       <c r="G144" t="n">
-        <v>4627.807486119998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5745,22 +5325,19 @@
         <v>3.31</v>
       </c>
       <c r="G145" t="n">
-        <v>4631.117486119999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5782,22 +5359,19 @@
         <v>70.02679999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>4631.117486119999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5819,22 +5393,19 @@
         <v>62</v>
       </c>
       <c r="G147" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5856,22 +5427,19 @@
         <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5893,22 +5461,19 @@
         <v>103.5</v>
       </c>
       <c r="G149" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5930,22 +5495,19 @@
         <v>34.5</v>
       </c>
       <c r="G150" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5967,22 +5529,19 @@
         <v>6</v>
       </c>
       <c r="G151" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6004,22 +5563,19 @@
         <v>62</v>
       </c>
       <c r="G152" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6041,22 +5597,19 @@
         <v>42</v>
       </c>
       <c r="G153" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6078,22 +5631,19 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6115,22 +5665,19 @@
         <v>53</v>
       </c>
       <c r="G155" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6152,22 +5699,19 @@
         <v>32</v>
       </c>
       <c r="G156" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6189,22 +5733,19 @@
         <v>33</v>
       </c>
       <c r="G157" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6226,22 +5767,19 @@
         <v>131</v>
       </c>
       <c r="G158" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6263,20 +5801,19 @@
         <v>67.92400000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>4693.117486119999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
       </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6298,18 +5835,19 @@
         <v>34.5</v>
       </c>
       <c r="G160" t="n">
-        <v>4727.617486119999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6331,18 +5869,19 @@
         <v>3.6073</v>
       </c>
       <c r="G161" t="n">
-        <v>4724.010186119999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6364,18 +5903,19 @@
         <v>32</v>
       </c>
       <c r="G162" t="n">
-        <v>4756.010186119999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6397,18 +5937,19 @@
         <v>38.5</v>
       </c>
       <c r="G163" t="n">
-        <v>4756.010186119999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6430,18 +5971,19 @@
         <v>5</v>
       </c>
       <c r="G164" t="n">
-        <v>4751.010186119999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6463,18 +6005,19 @@
         <v>11.7954</v>
       </c>
       <c r="G165" t="n">
-        <v>4751.010186119999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6496,18 +6039,17 @@
         <v>95</v>
       </c>
       <c r="G166" t="n">
-        <v>4846.010186119999</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6529,18 +6071,15 @@
         <v>32</v>
       </c>
       <c r="G167" t="n">
-        <v>4846.010186119999</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6562,18 +6101,15 @@
         <v>34</v>
       </c>
       <c r="G168" t="n">
-        <v>4880.010186119999</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6595,18 +6131,15 @@
         <v>34.6288</v>
       </c>
       <c r="G169" t="n">
-        <v>4845.381386119999</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6628,18 +6161,15 @@
         <v>6</v>
       </c>
       <c r="G170" t="n">
-        <v>4851.381386119999</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6661,18 +6191,15 @@
         <v>4</v>
       </c>
       <c r="G171" t="n">
-        <v>4851.381386119999</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6694,18 +6221,15 @@
         <v>4</v>
       </c>
       <c r="G172" t="n">
-        <v>4851.381386119999</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6727,18 +6251,15 @@
         <v>6</v>
       </c>
       <c r="G173" t="n">
-        <v>4857.381386119999</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
